--- a/data/feefo_product_ratings_week_20250421.xlsx
+++ b/data/feefo_product_ratings_week_20250421.xlsx
@@ -436,14 +436,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Product Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>rating</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sku</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>review_count</t>
@@ -451,7319 +451,7319 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1003805</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1003805</t>
-        </is>
-      </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1004157</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1004799</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1005500</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1007964</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1007964</t>
-        </is>
-      </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1009978</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1010449</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1016258</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1017559</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1025545</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1026153</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1027042</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1029103</t>
         </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1031001</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>4</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1031001</t>
-        </is>
-      </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1032185</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>3</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1032185</t>
-        </is>
-      </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1033155</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1033445</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1036092</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1038640</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1039106</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1041981</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1048558</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1049381</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1049738</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1051541</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>5</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1054703</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>5</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1057190</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>5</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1060756</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>5</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1061540</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>5</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1063206</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1065021</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>2</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1065021</t>
-        </is>
       </c>
       <c r="C32" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>5</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1065062</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
       <c r="C33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>5</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1067493</t>
         </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>5</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1070589</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>5</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1070786</t>
         </is>
       </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1078657</t>
         </is>
       </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>5</v>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1082156</t>
         </is>
       </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>5</v>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1088986</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
       <c r="C39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>5</v>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1088991</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>5</v>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1091800</t>
         </is>
       </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>5</v>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1096461</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>5</v>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1098821</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
       <c r="C43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1098831</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
         <v>4</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1098831</t>
-        </is>
-      </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>5</v>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1102757</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>5</v>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1109164</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>5</v>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1109497</t>
         </is>
       </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>5</v>
-      </c>
-      <c r="B48" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1113860</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
       <c r="C48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1114901</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
         <v>3</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1114901</t>
-        </is>
       </c>
       <c r="C49" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>5</v>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1117497</t>
         </is>
       </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
       <c r="C50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>5</v>
-      </c>
-      <c r="B51" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1122877</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>1</v>
-      </c>
-      <c r="B52" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1124382</t>
         </is>
       </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
       <c r="C52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>5</v>
-      </c>
-      <c r="B53" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1129377</t>
         </is>
       </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>5</v>
-      </c>
-      <c r="B54" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1130255</t>
         </is>
       </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>5</v>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1130264</t>
         </is>
       </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>5</v>
-      </c>
-      <c r="B56" t="inlineStr">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1130272</t>
         </is>
       </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>5</v>
-      </c>
-      <c r="B57" t="inlineStr">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1131853</t>
         </is>
       </c>
+      <c r="B57" t="n">
+        <v>5</v>
+      </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>5</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1132485</t>
         </is>
       </c>
+      <c r="B58" t="n">
+        <v>5</v>
+      </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>5</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1133162</t>
         </is>
       </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
       <c r="C59" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>5</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1136800</t>
         </is>
       </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
       <c r="C60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>5</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1142235</t>
         </is>
       </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>5</v>
-      </c>
-      <c r="B62" t="inlineStr">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1142857</t>
         </is>
       </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>5</v>
-      </c>
-      <c r="B63" t="inlineStr">
+      <c r="A63" t="inlineStr">
         <is>
           <t>1144067</t>
         </is>
       </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>5</v>
-      </c>
-      <c r="B64" t="inlineStr">
+      <c r="A64" t="inlineStr">
         <is>
           <t>1147542</t>
         </is>
       </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>5</v>
-      </c>
-      <c r="B65" t="inlineStr">
+      <c r="A65" t="inlineStr">
         <is>
           <t>1148001</t>
         </is>
       </c>
+      <c r="B65" t="n">
+        <v>5</v>
+      </c>
       <c r="C65" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>5</v>
-      </c>
-      <c r="B66" t="inlineStr">
+      <c r="A66" t="inlineStr">
         <is>
           <t>1149488</t>
         </is>
       </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>5</v>
-      </c>
-      <c r="B67" t="inlineStr">
+      <c r="A67" t="inlineStr">
         <is>
           <t>1150266</t>
         </is>
       </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>5</v>
-      </c>
-      <c r="B68" t="inlineStr">
+      <c r="A68" t="inlineStr">
         <is>
           <t>1150750</t>
         </is>
       </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
       <c r="C68" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>5</v>
-      </c>
-      <c r="B69" t="inlineStr">
+      <c r="A69" t="inlineStr">
         <is>
           <t>1151365</t>
         </is>
       </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>5</v>
-      </c>
-      <c r="B70" t="inlineStr">
+      <c r="A70" t="inlineStr">
         <is>
           <t>1151368</t>
         </is>
       </c>
+      <c r="B70" t="n">
+        <v>5</v>
+      </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>5</v>
-      </c>
-      <c r="B71" t="inlineStr">
+      <c r="A71" t="inlineStr">
         <is>
           <t>1151813</t>
         </is>
       </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>5</v>
-      </c>
-      <c r="B72" t="inlineStr">
+      <c r="A72" t="inlineStr">
         <is>
           <t>1152259</t>
         </is>
+      </c>
+      <c r="B72" t="n">
+        <v>5</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>5</v>
-      </c>
-      <c r="B73" t="inlineStr">
+      <c r="A73" t="inlineStr">
         <is>
           <t>1152784</t>
         </is>
       </c>
+      <c r="B73" t="n">
+        <v>5</v>
+      </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>5</v>
-      </c>
-      <c r="B74" t="inlineStr">
+      <c r="A74" t="inlineStr">
         <is>
           <t>1153423</t>
         </is>
       </c>
+      <c r="B74" t="n">
+        <v>5</v>
+      </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>5</v>
-      </c>
-      <c r="B75" t="inlineStr">
+      <c r="A75" t="inlineStr">
         <is>
           <t>1153772</t>
         </is>
       </c>
+      <c r="B75" t="n">
+        <v>5</v>
+      </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1154070</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
         <v>3</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>1154070</t>
-        </is>
-      </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>5</v>
-      </c>
-      <c r="B77" t="inlineStr">
+      <c r="A77" t="inlineStr">
         <is>
           <t>1154598</t>
         </is>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
       </c>
       <c r="C77" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>5</v>
-      </c>
-      <c r="B78" t="inlineStr">
+      <c r="A78" t="inlineStr">
         <is>
           <t>1154713</t>
         </is>
       </c>
+      <c r="B78" t="n">
+        <v>5</v>
+      </c>
       <c r="C78" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>5</v>
-      </c>
-      <c r="B79" t="inlineStr">
+      <c r="A79" t="inlineStr">
         <is>
           <t>1155557</t>
         </is>
       </c>
+      <c r="B79" t="n">
+        <v>5</v>
+      </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>5</v>
-      </c>
-      <c r="B80" t="inlineStr">
+      <c r="A80" t="inlineStr">
         <is>
           <t>115571</t>
         </is>
       </c>
+      <c r="B80" t="n">
+        <v>5</v>
+      </c>
       <c r="C80" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>5</v>
-      </c>
-      <c r="B81" t="inlineStr">
+      <c r="A81" t="inlineStr">
         <is>
           <t>1158550</t>
         </is>
       </c>
+      <c r="B81" t="n">
+        <v>5</v>
+      </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>5</v>
-      </c>
-      <c r="B82" t="inlineStr">
+      <c r="A82" t="inlineStr">
         <is>
           <t>1162105</t>
         </is>
       </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
       <c r="C82" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>5</v>
-      </c>
-      <c r="B83" t="inlineStr">
+      <c r="A83" t="inlineStr">
         <is>
           <t>1162589</t>
         </is>
       </c>
+      <c r="B83" t="n">
+        <v>5</v>
+      </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>5</v>
-      </c>
-      <c r="B84" t="inlineStr">
+      <c r="A84" t="inlineStr">
         <is>
           <t>1165322</t>
         </is>
       </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>5</v>
-      </c>
-      <c r="B85" t="inlineStr">
+      <c r="A85" t="inlineStr">
         <is>
           <t>1168684</t>
         </is>
       </c>
+      <c r="B85" t="n">
+        <v>5</v>
+      </c>
       <c r="C85" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>5</v>
-      </c>
-      <c r="B86" t="inlineStr">
+      <c r="A86" t="inlineStr">
         <is>
           <t>1169458</t>
         </is>
       </c>
+      <c r="B86" t="n">
+        <v>5</v>
+      </c>
       <c r="C86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>5</v>
-      </c>
-      <c r="B87" t="inlineStr">
+      <c r="A87" t="inlineStr">
         <is>
           <t>1170247</t>
         </is>
       </c>
+      <c r="B87" t="n">
+        <v>5</v>
+      </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1170665</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
         <v>4</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>1170665</t>
-        </is>
-      </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>5</v>
-      </c>
-      <c r="B89" t="inlineStr">
+      <c r="A89" t="inlineStr">
         <is>
           <t>1172162</t>
         </is>
       </c>
+      <c r="B89" t="n">
+        <v>5</v>
+      </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>5</v>
-      </c>
-      <c r="B90" t="inlineStr">
+      <c r="A90" t="inlineStr">
         <is>
           <t>1174703</t>
         </is>
       </c>
+      <c r="B90" t="n">
+        <v>5</v>
+      </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>5</v>
-      </c>
-      <c r="B91" t="inlineStr">
+      <c r="A91" t="inlineStr">
         <is>
           <t>1176955</t>
         </is>
       </c>
+      <c r="B91" t="n">
+        <v>5</v>
+      </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1177995</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
         <v>3</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>1177995</t>
-        </is>
-      </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>5</v>
-      </c>
-      <c r="B93" t="inlineStr">
+      <c r="A93" t="inlineStr">
         <is>
           <t>1178613</t>
         </is>
       </c>
+      <c r="B93" t="n">
+        <v>5</v>
+      </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>5</v>
-      </c>
-      <c r="B94" t="inlineStr">
+      <c r="A94" t="inlineStr">
         <is>
           <t>1179458</t>
         </is>
       </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
       <c r="C94" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>5</v>
-      </c>
-      <c r="B95" t="inlineStr">
+      <c r="A95" t="inlineStr">
         <is>
           <t>1184400</t>
         </is>
       </c>
+      <c r="B95" t="n">
+        <v>5</v>
+      </c>
       <c r="C95" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>5</v>
-      </c>
-      <c r="B96" t="inlineStr">
+      <c r="A96" t="inlineStr">
         <is>
           <t>1184621</t>
         </is>
       </c>
+      <c r="B96" t="n">
+        <v>5</v>
+      </c>
       <c r="C96" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>5</v>
-      </c>
-      <c r="B97" t="inlineStr">
+      <c r="A97" t="inlineStr">
         <is>
           <t>1187567</t>
         </is>
       </c>
+      <c r="B97" t="n">
+        <v>5</v>
+      </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>5</v>
-      </c>
-      <c r="B98" t="inlineStr">
+      <c r="A98" t="inlineStr">
         <is>
           <t>1192702</t>
         </is>
       </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
       <c r="C98" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>5</v>
-      </c>
-      <c r="B99" t="inlineStr">
+      <c r="A99" t="inlineStr">
         <is>
           <t>1193158</t>
         </is>
       </c>
+      <c r="B99" t="n">
+        <v>5</v>
+      </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>5</v>
-      </c>
-      <c r="B100" t="inlineStr">
+      <c r="A100" t="inlineStr">
         <is>
           <t>1199597</t>
         </is>
       </c>
+      <c r="B100" t="n">
+        <v>5</v>
+      </c>
       <c r="C100" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>5</v>
-      </c>
-      <c r="B101" t="inlineStr">
+      <c r="A101" t="inlineStr">
         <is>
           <t>1201258</t>
         </is>
       </c>
+      <c r="B101" t="n">
+        <v>5</v>
+      </c>
       <c r="C101" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>5</v>
-      </c>
-      <c r="B102" t="inlineStr">
+      <c r="A102" t="inlineStr">
         <is>
           <t>1202341</t>
         </is>
       </c>
+      <c r="B102" t="n">
+        <v>5</v>
+      </c>
       <c r="C102" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>5</v>
-      </c>
-      <c r="B103" t="inlineStr">
+      <c r="A103" t="inlineStr">
         <is>
           <t>1205131</t>
         </is>
       </c>
+      <c r="B103" t="n">
+        <v>5</v>
+      </c>
       <c r="C103" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>5</v>
-      </c>
-      <c r="B104" t="inlineStr">
+      <c r="A104" t="inlineStr">
         <is>
           <t>1205761</t>
         </is>
       </c>
+      <c r="B104" t="n">
+        <v>5</v>
+      </c>
       <c r="C104" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>5</v>
-      </c>
-      <c r="B105" t="inlineStr">
+      <c r="A105" t="inlineStr">
         <is>
           <t>1206421</t>
         </is>
       </c>
+      <c r="B105" t="n">
+        <v>5</v>
+      </c>
       <c r="C105" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>5</v>
-      </c>
-      <c r="B106" t="inlineStr">
+      <c r="A106" t="inlineStr">
         <is>
           <t>1209526</t>
         </is>
       </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
       <c r="C106" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>5</v>
-      </c>
-      <c r="B107" t="inlineStr">
+      <c r="A107" t="inlineStr">
         <is>
           <t>1211012</t>
         </is>
       </c>
+      <c r="B107" t="n">
+        <v>5</v>
+      </c>
       <c r="C107" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>5</v>
-      </c>
-      <c r="B108" t="inlineStr">
+      <c r="A108" t="inlineStr">
         <is>
           <t>1211282</t>
         </is>
       </c>
+      <c r="B108" t="n">
+        <v>5</v>
+      </c>
       <c r="C108" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>5</v>
-      </c>
-      <c r="B109" t="inlineStr">
+      <c r="A109" t="inlineStr">
         <is>
           <t>1211832</t>
         </is>
       </c>
+      <c r="B109" t="n">
+        <v>5</v>
+      </c>
       <c r="C109" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>5</v>
-      </c>
-      <c r="B110" t="inlineStr">
+      <c r="A110" t="inlineStr">
         <is>
           <t>1214239</t>
         </is>
       </c>
+      <c r="B110" t="n">
+        <v>5</v>
+      </c>
       <c r="C110" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>5</v>
-      </c>
-      <c r="B111" t="inlineStr">
+      <c r="A111" t="inlineStr">
         <is>
           <t>1220967</t>
         </is>
       </c>
+      <c r="B111" t="n">
+        <v>5</v>
+      </c>
       <c r="C111" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>5</v>
-      </c>
-      <c r="B112" t="inlineStr">
+      <c r="A112" t="inlineStr">
         <is>
           <t>1222011</t>
         </is>
       </c>
+      <c r="B112" t="n">
+        <v>5</v>
+      </c>
       <c r="C112" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>5</v>
-      </c>
-      <c r="B113" t="inlineStr">
+      <c r="A113" t="inlineStr">
         <is>
           <t>1222352</t>
         </is>
       </c>
+      <c r="B113" t="n">
+        <v>5</v>
+      </c>
       <c r="C113" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>1224491</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
         <v>2</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>1224491</t>
-        </is>
-      </c>
       <c r="C114" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>5</v>
-      </c>
-      <c r="B115" t="inlineStr">
+      <c r="A115" t="inlineStr">
         <is>
           <t>1229576</t>
         </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
       </c>
       <c r="C115" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>5</v>
-      </c>
-      <c r="B116" t="inlineStr">
+      <c r="A116" t="inlineStr">
         <is>
           <t>1232434</t>
         </is>
       </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
       <c r="C116" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>5</v>
-      </c>
-      <c r="B117" t="inlineStr">
+      <c r="A117" t="inlineStr">
         <is>
           <t>1232438</t>
         </is>
       </c>
+      <c r="B117" t="n">
+        <v>5</v>
+      </c>
       <c r="C117" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>5</v>
-      </c>
-      <c r="B118" t="inlineStr">
+      <c r="A118" t="inlineStr">
         <is>
           <t>1233161</t>
         </is>
       </c>
+      <c r="B118" t="n">
+        <v>5</v>
+      </c>
       <c r="C118" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>5</v>
-      </c>
-      <c r="B119" t="inlineStr">
+      <c r="A119" t="inlineStr">
         <is>
           <t>1235571</t>
         </is>
       </c>
+      <c r="B119" t="n">
+        <v>5</v>
+      </c>
       <c r="C119" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>5</v>
-      </c>
-      <c r="B120" t="inlineStr">
+      <c r="A120" t="inlineStr">
         <is>
           <t>1236456</t>
         </is>
       </c>
+      <c r="B120" t="n">
+        <v>5</v>
+      </c>
       <c r="C120" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>5</v>
-      </c>
-      <c r="B121" t="inlineStr">
+      <c r="A121" t="inlineStr">
         <is>
           <t>1236755</t>
         </is>
       </c>
+      <c r="B121" t="n">
+        <v>5</v>
+      </c>
       <c r="C121" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>1236996</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
         <v>4</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>1236996</t>
-        </is>
-      </c>
       <c r="C122" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>5</v>
-      </c>
-      <c r="B123" t="inlineStr">
+      <c r="A123" t="inlineStr">
         <is>
           <t>1240077</t>
         </is>
       </c>
+      <c r="B123" t="n">
+        <v>5</v>
+      </c>
       <c r="C123" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>5</v>
-      </c>
-      <c r="B124" t="inlineStr">
+      <c r="A124" t="inlineStr">
         <is>
           <t>1242919</t>
         </is>
       </c>
+      <c r="B124" t="n">
+        <v>5</v>
+      </c>
       <c r="C124" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>5</v>
-      </c>
-      <c r="B125" t="inlineStr">
+      <c r="A125" t="inlineStr">
         <is>
           <t>1245110</t>
         </is>
       </c>
+      <c r="B125" t="n">
+        <v>5</v>
+      </c>
       <c r="C125" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>5</v>
-      </c>
-      <c r="B126" t="inlineStr">
+      <c r="A126" t="inlineStr">
         <is>
           <t>1245239</t>
         </is>
       </c>
+      <c r="B126" t="n">
+        <v>5</v>
+      </c>
       <c r="C126" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>1</v>
-      </c>
-      <c r="B127" t="inlineStr">
+      <c r="A127" t="inlineStr">
         <is>
           <t>1245525</t>
         </is>
       </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
       <c r="C127" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>5</v>
-      </c>
-      <c r="B128" t="inlineStr">
+      <c r="A128" t="inlineStr">
         <is>
           <t>1248310</t>
         </is>
       </c>
+      <c r="B128" t="n">
+        <v>5</v>
+      </c>
       <c r="C128" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>5</v>
-      </c>
-      <c r="B129" t="inlineStr">
+      <c r="A129" t="inlineStr">
         <is>
           <t>1254801</t>
         </is>
       </c>
+      <c r="B129" t="n">
+        <v>5</v>
+      </c>
       <c r="C129" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>5</v>
-      </c>
-      <c r="B130" t="inlineStr">
+      <c r="A130" t="inlineStr">
         <is>
           <t>1258625</t>
         </is>
       </c>
+      <c r="B130" t="n">
+        <v>5</v>
+      </c>
       <c r="C130" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>5</v>
-      </c>
-      <c r="B131" t="inlineStr">
+      <c r="A131" t="inlineStr">
         <is>
           <t>1261403</t>
         </is>
       </c>
+      <c r="B131" t="n">
+        <v>5</v>
+      </c>
       <c r="C131" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>5</v>
-      </c>
-      <c r="B132" t="inlineStr">
+      <c r="A132" t="inlineStr">
         <is>
           <t>1263673</t>
         </is>
       </c>
+      <c r="B132" t="n">
+        <v>5</v>
+      </c>
       <c r="C132" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>5</v>
-      </c>
-      <c r="B133" t="inlineStr">
+      <c r="A133" t="inlineStr">
         <is>
           <t>1263737</t>
         </is>
       </c>
+      <c r="B133" t="n">
+        <v>5</v>
+      </c>
       <c r="C133" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1266507</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
         <v>4.5</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>1266507</t>
-        </is>
       </c>
       <c r="C134" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>5</v>
-      </c>
-      <c r="B135" t="inlineStr">
+      <c r="A135" t="inlineStr">
         <is>
           <t>1266513</t>
         </is>
       </c>
+      <c r="B135" t="n">
+        <v>5</v>
+      </c>
       <c r="C135" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>5</v>
-      </c>
-      <c r="B136" t="inlineStr">
+      <c r="A136" t="inlineStr">
         <is>
           <t>1266518</t>
         </is>
       </c>
+      <c r="B136" t="n">
+        <v>5</v>
+      </c>
       <c r="C136" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>5</v>
-      </c>
-      <c r="B137" t="inlineStr">
+      <c r="A137" t="inlineStr">
         <is>
           <t>1267432</t>
         </is>
       </c>
+      <c r="B137" t="n">
+        <v>5</v>
+      </c>
       <c r="C137" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>5</v>
-      </c>
-      <c r="B138" t="inlineStr">
+      <c r="A138" t="inlineStr">
         <is>
           <t>1268037</t>
         </is>
       </c>
+      <c r="B138" t="n">
+        <v>5</v>
+      </c>
       <c r="C138" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>1</v>
-      </c>
-      <c r="B139" t="inlineStr">
+      <c r="A139" t="inlineStr">
         <is>
           <t>1268384</t>
         </is>
       </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
       <c r="C139" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>5</v>
-      </c>
-      <c r="B140" t="inlineStr">
+      <c r="A140" t="inlineStr">
         <is>
           <t>1268751</t>
         </is>
+      </c>
+      <c r="B140" t="n">
+        <v>5</v>
       </c>
       <c r="C140" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>5</v>
-      </c>
-      <c r="B141" t="inlineStr">
+      <c r="A141" t="inlineStr">
         <is>
           <t>1270645</t>
         </is>
       </c>
+      <c r="B141" t="n">
+        <v>5</v>
+      </c>
       <c r="C141" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>5</v>
-      </c>
-      <c r="B142" t="inlineStr">
+      <c r="A142" t="inlineStr">
         <is>
           <t>1272876</t>
         </is>
+      </c>
+      <c r="B142" t="n">
+        <v>5</v>
       </c>
       <c r="C142" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>5</v>
-      </c>
-      <c r="B143" t="inlineStr">
+      <c r="A143" t="inlineStr">
         <is>
           <t>1272972</t>
         </is>
       </c>
+      <c r="B143" t="n">
+        <v>5</v>
+      </c>
       <c r="C143" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>5</v>
-      </c>
-      <c r="B144" t="inlineStr">
+      <c r="A144" t="inlineStr">
         <is>
           <t>1274185</t>
         </is>
       </c>
+      <c r="B144" t="n">
+        <v>5</v>
+      </c>
       <c r="C144" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>5</v>
-      </c>
-      <c r="B145" t="inlineStr">
+      <c r="A145" t="inlineStr">
         <is>
           <t>1274963</t>
         </is>
       </c>
+      <c r="B145" t="n">
+        <v>5</v>
+      </c>
       <c r="C145" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>5</v>
-      </c>
-      <c r="B146" t="inlineStr">
+      <c r="A146" t="inlineStr">
         <is>
           <t>1275452</t>
         </is>
       </c>
+      <c r="B146" t="n">
+        <v>5</v>
+      </c>
       <c r="C146" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1276014</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
         <v>4</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>1276014</t>
-        </is>
-      </c>
       <c r="C147" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>5</v>
-      </c>
-      <c r="B148" t="inlineStr">
+      <c r="A148" t="inlineStr">
         <is>
           <t>1276705</t>
         </is>
       </c>
+      <c r="B148" t="n">
+        <v>5</v>
+      </c>
       <c r="C148" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>5</v>
-      </c>
-      <c r="B149" t="inlineStr">
+      <c r="A149" t="inlineStr">
         <is>
           <t>1277486</t>
         </is>
       </c>
+      <c r="B149" t="n">
+        <v>5</v>
+      </c>
       <c r="C149" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>5</v>
-      </c>
-      <c r="B150" t="inlineStr">
+      <c r="A150" t="inlineStr">
         <is>
           <t>1277557</t>
         </is>
       </c>
+      <c r="B150" t="n">
+        <v>5</v>
+      </c>
       <c r="C150" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1278588</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
         <v>4.8</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>1278588</t>
-        </is>
       </c>
       <c r="C151" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>5</v>
-      </c>
-      <c r="B152" t="inlineStr">
+      <c r="A152" t="inlineStr">
         <is>
           <t>1278598</t>
         </is>
       </c>
+      <c r="B152" t="n">
+        <v>5</v>
+      </c>
       <c r="C152" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>5</v>
-      </c>
-      <c r="B153" t="inlineStr">
+      <c r="A153" t="inlineStr">
         <is>
           <t>1278649</t>
         </is>
       </c>
+      <c r="B153" t="n">
+        <v>5</v>
+      </c>
       <c r="C153" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>5</v>
-      </c>
-      <c r="B154" t="inlineStr">
+      <c r="A154" t="inlineStr">
         <is>
           <t>1279006</t>
         </is>
       </c>
+      <c r="B154" t="n">
+        <v>5</v>
+      </c>
       <c r="C154" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>5</v>
-      </c>
-      <c r="B155" t="inlineStr">
+      <c r="A155" t="inlineStr">
         <is>
           <t>1280732</t>
         </is>
       </c>
+      <c r="B155" t="n">
+        <v>5</v>
+      </c>
       <c r="C155" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>5</v>
-      </c>
-      <c r="B156" t="inlineStr">
+      <c r="A156" t="inlineStr">
         <is>
           <t>1280956</t>
         </is>
       </c>
+      <c r="B156" t="n">
+        <v>5</v>
+      </c>
       <c r="C156" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>5</v>
-      </c>
-      <c r="B157" t="inlineStr">
+      <c r="A157" t="inlineStr">
         <is>
           <t>1281419</t>
         </is>
       </c>
+      <c r="B157" t="n">
+        <v>5</v>
+      </c>
       <c r="C157" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>5</v>
-      </c>
-      <c r="B158" t="inlineStr">
+      <c r="A158" t="inlineStr">
         <is>
           <t>1281510</t>
         </is>
       </c>
+      <c r="B158" t="n">
+        <v>5</v>
+      </c>
       <c r="C158" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>5</v>
-      </c>
-      <c r="B159" t="inlineStr">
+      <c r="A159" t="inlineStr">
         <is>
           <t>1283484</t>
         </is>
       </c>
+      <c r="B159" t="n">
+        <v>5</v>
+      </c>
       <c r="C159" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>5</v>
-      </c>
-      <c r="B160" t="inlineStr">
+      <c r="A160" t="inlineStr">
         <is>
           <t>1285053</t>
         </is>
       </c>
+      <c r="B160" t="n">
+        <v>5</v>
+      </c>
       <c r="C160" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
-        <v>5</v>
-      </c>
-      <c r="B161" t="inlineStr">
+      <c r="A161" t="inlineStr">
         <is>
           <t>1288180</t>
         </is>
       </c>
+      <c r="B161" t="n">
+        <v>5</v>
+      </c>
       <c r="C161" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
-        <v>5</v>
-      </c>
-      <c r="B162" t="inlineStr">
+      <c r="A162" t="inlineStr">
         <is>
           <t>1291104</t>
         </is>
       </c>
+      <c r="B162" t="n">
+        <v>5</v>
+      </c>
       <c r="C162" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>5</v>
-      </c>
-      <c r="B163" t="inlineStr">
+      <c r="A163" t="inlineStr">
         <is>
           <t>1291246</t>
         </is>
       </c>
+      <c r="B163" t="n">
+        <v>5</v>
+      </c>
       <c r="C163" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
-        <v>1</v>
-      </c>
-      <c r="B164" t="inlineStr">
+      <c r="A164" t="inlineStr">
         <is>
           <t>1292174</t>
         </is>
       </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
       <c r="C164" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
-        <v>5</v>
-      </c>
-      <c r="B165" t="inlineStr">
+      <c r="A165" t="inlineStr">
         <is>
           <t>1294546</t>
         </is>
       </c>
+      <c r="B165" t="n">
+        <v>5</v>
+      </c>
       <c r="C165" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
-        <v>5</v>
-      </c>
-      <c r="B166" t="inlineStr">
+      <c r="A166" t="inlineStr">
         <is>
           <t>1295307</t>
         </is>
       </c>
+      <c r="B166" t="n">
+        <v>5</v>
+      </c>
       <c r="C166" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
-        <v>5</v>
-      </c>
-      <c r="B167" t="inlineStr">
+      <c r="A167" t="inlineStr">
         <is>
           <t>1298077</t>
         </is>
       </c>
+      <c r="B167" t="n">
+        <v>5</v>
+      </c>
       <c r="C167" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
-        <v>5</v>
-      </c>
-      <c r="B168" t="inlineStr">
+      <c r="A168" t="inlineStr">
         <is>
           <t>1300268</t>
         </is>
       </c>
+      <c r="B168" t="n">
+        <v>5</v>
+      </c>
       <c r="C168" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
-        <v>5</v>
-      </c>
-      <c r="B169" t="inlineStr">
+      <c r="A169" t="inlineStr">
         <is>
           <t>1300839</t>
         </is>
       </c>
+      <c r="B169" t="n">
+        <v>5</v>
+      </c>
       <c r="C169" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
-        <v>5</v>
-      </c>
-      <c r="B170" t="inlineStr">
+      <c r="A170" t="inlineStr">
         <is>
           <t>1301105</t>
         </is>
       </c>
+      <c r="B170" t="n">
+        <v>5</v>
+      </c>
       <c r="C170" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
-        <v>5</v>
-      </c>
-      <c r="B171" t="inlineStr">
+      <c r="A171" t="inlineStr">
         <is>
           <t>1301214</t>
         </is>
       </c>
+      <c r="B171" t="n">
+        <v>5</v>
+      </c>
       <c r="C171" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
-        <v>5</v>
-      </c>
-      <c r="B172" t="inlineStr">
+      <c r="A172" t="inlineStr">
         <is>
           <t>1306630</t>
         </is>
       </c>
+      <c r="B172" t="n">
+        <v>5</v>
+      </c>
       <c r="C172" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
-        <v>5</v>
-      </c>
-      <c r="B173" t="inlineStr">
+      <c r="A173" t="inlineStr">
         <is>
           <t>1307993</t>
         </is>
       </c>
+      <c r="B173" t="n">
+        <v>5</v>
+      </c>
       <c r="C173" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
-        <v>5</v>
-      </c>
-      <c r="B174" t="inlineStr">
+      <c r="A174" t="inlineStr">
         <is>
           <t>1311331</t>
         </is>
       </c>
+      <c r="B174" t="n">
+        <v>5</v>
+      </c>
       <c r="C174" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
-        <v>5</v>
-      </c>
-      <c r="B175" t="inlineStr">
+      <c r="A175" t="inlineStr">
         <is>
           <t>1311718</t>
         </is>
       </c>
+      <c r="B175" t="n">
+        <v>5</v>
+      </c>
       <c r="C175" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
-        <v>5</v>
-      </c>
-      <c r="B176" t="inlineStr">
+      <c r="A176" t="inlineStr">
         <is>
           <t>1313480</t>
         </is>
       </c>
+      <c r="B176" t="n">
+        <v>5</v>
+      </c>
       <c r="C176" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
-        <v>5</v>
-      </c>
-      <c r="B177" t="inlineStr">
+      <c r="A177" t="inlineStr">
         <is>
           <t>1317092</t>
         </is>
       </c>
+      <c r="B177" t="n">
+        <v>5</v>
+      </c>
       <c r="C177" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
-        <v>5</v>
-      </c>
-      <c r="B178" t="inlineStr">
+      <c r="A178" t="inlineStr">
         <is>
           <t>1318003</t>
         </is>
       </c>
+      <c r="B178" t="n">
+        <v>5</v>
+      </c>
       <c r="C178" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
-        <v>5</v>
-      </c>
-      <c r="B179" t="inlineStr">
+      <c r="A179" t="inlineStr">
         <is>
           <t>1318174</t>
         </is>
       </c>
+      <c r="B179" t="n">
+        <v>5</v>
+      </c>
       <c r="C179" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
-        <v>5</v>
-      </c>
-      <c r="B180" t="inlineStr">
+      <c r="A180" t="inlineStr">
         <is>
           <t>1318304</t>
         </is>
       </c>
+      <c r="B180" t="n">
+        <v>5</v>
+      </c>
       <c r="C180" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1320630</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
         <v>2</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>1320630</t>
-        </is>
-      </c>
       <c r="C181" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
-        <v>5</v>
-      </c>
-      <c r="B182" t="inlineStr">
+      <c r="A182" t="inlineStr">
         <is>
           <t>1321115</t>
         </is>
+      </c>
+      <c r="B182" t="n">
+        <v>5</v>
       </c>
       <c r="C182" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
-        <v>5</v>
-      </c>
-      <c r="B183" t="inlineStr">
+      <c r="A183" t="inlineStr">
         <is>
           <t>1324319</t>
         </is>
       </c>
+      <c r="B183" t="n">
+        <v>5</v>
+      </c>
       <c r="C183" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>1325644</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
         <v>4</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>1325644</t>
-        </is>
-      </c>
       <c r="C184" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
-        <v>5</v>
-      </c>
-      <c r="B185" t="inlineStr">
+      <c r="A185" t="inlineStr">
         <is>
           <t>1327815</t>
         </is>
       </c>
+      <c r="B185" t="n">
+        <v>5</v>
+      </c>
       <c r="C185" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
-        <v>5</v>
-      </c>
-      <c r="B186" t="inlineStr">
+      <c r="A186" t="inlineStr">
         <is>
           <t>1330677</t>
         </is>
       </c>
+      <c r="B186" t="n">
+        <v>5</v>
+      </c>
       <c r="C186" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
-        <v>5</v>
-      </c>
-      <c r="B187" t="inlineStr">
+      <c r="A187" t="inlineStr">
         <is>
           <t>1334182</t>
         </is>
       </c>
+      <c r="B187" t="n">
+        <v>5</v>
+      </c>
       <c r="C187" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
-        <v>5</v>
-      </c>
-      <c r="B188" t="inlineStr">
+      <c r="A188" t="inlineStr">
         <is>
           <t>1334575</t>
         </is>
       </c>
+      <c r="B188" t="n">
+        <v>5</v>
+      </c>
       <c r="C188" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
-        <v>5</v>
-      </c>
-      <c r="B189" t="inlineStr">
+      <c r="A189" t="inlineStr">
         <is>
           <t>1334718</t>
         </is>
       </c>
+      <c r="B189" t="n">
+        <v>5</v>
+      </c>
       <c r="C189" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
-        <v>5</v>
-      </c>
-      <c r="B190" t="inlineStr">
+      <c r="A190" t="inlineStr">
         <is>
           <t>1335284</t>
         </is>
       </c>
+      <c r="B190" t="n">
+        <v>5</v>
+      </c>
       <c r="C190" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
-        <v>5</v>
-      </c>
-      <c r="B191" t="inlineStr">
+      <c r="A191" t="inlineStr">
         <is>
           <t>1336405</t>
         </is>
       </c>
+      <c r="B191" t="n">
+        <v>5</v>
+      </c>
       <c r="C191" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
-        <v>5</v>
-      </c>
-      <c r="B192" t="inlineStr">
+      <c r="A192" t="inlineStr">
         <is>
           <t>1338500</t>
         </is>
       </c>
+      <c r="B192" t="n">
+        <v>5</v>
+      </c>
       <c r="C192" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
-        <v>1</v>
-      </c>
-      <c r="B193" t="inlineStr">
+      <c r="A193" t="inlineStr">
         <is>
           <t>1339031</t>
         </is>
       </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
       <c r="C193" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
-        <v>5</v>
-      </c>
-      <c r="B194" t="inlineStr">
+      <c r="A194" t="inlineStr">
         <is>
           <t>1340775</t>
         </is>
       </c>
+      <c r="B194" t="n">
+        <v>5</v>
+      </c>
       <c r="C194" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
-        <v>5</v>
-      </c>
-      <c r="B195" t="inlineStr">
+      <c r="A195" t="inlineStr">
         <is>
           <t>1341077</t>
         </is>
       </c>
+      <c r="B195" t="n">
+        <v>5</v>
+      </c>
       <c r="C195" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
-        <v>1</v>
-      </c>
-      <c r="B196" t="inlineStr">
+      <c r="A196" t="inlineStr">
         <is>
           <t>1341494</t>
         </is>
       </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
       <c r="C196" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
-        <v>5</v>
-      </c>
-      <c r="B197" t="inlineStr">
+      <c r="A197" t="inlineStr">
         <is>
           <t>1341903</t>
         </is>
       </c>
+      <c r="B197" t="n">
+        <v>5</v>
+      </c>
       <c r="C197" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
-        <v>5</v>
-      </c>
-      <c r="B198" t="inlineStr">
+      <c r="A198" t="inlineStr">
         <is>
           <t>1344722</t>
         </is>
       </c>
+      <c r="B198" t="n">
+        <v>5</v>
+      </c>
       <c r="C198" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
-        <v>5</v>
-      </c>
-      <c r="B199" t="inlineStr">
+      <c r="A199" t="inlineStr">
         <is>
           <t>1346621</t>
         </is>
       </c>
+      <c r="B199" t="n">
+        <v>5</v>
+      </c>
       <c r="C199" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
-        <v>5</v>
-      </c>
-      <c r="B200" t="inlineStr">
+      <c r="A200" t="inlineStr">
         <is>
           <t>1347156</t>
         </is>
       </c>
+      <c r="B200" t="n">
+        <v>5</v>
+      </c>
       <c r="C200" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
-        <v>5</v>
-      </c>
-      <c r="B201" t="inlineStr">
+      <c r="A201" t="inlineStr">
         <is>
           <t>1348765</t>
         </is>
       </c>
+      <c r="B201" t="n">
+        <v>5</v>
+      </c>
       <c r="C201" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
-        <v>5</v>
-      </c>
-      <c r="B202" t="inlineStr">
+      <c r="A202" t="inlineStr">
         <is>
           <t>1353406</t>
         </is>
       </c>
+      <c r="B202" t="n">
+        <v>5</v>
+      </c>
       <c r="C202" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
-        <v>5</v>
-      </c>
-      <c r="B203" t="inlineStr">
+      <c r="A203" t="inlineStr">
         <is>
           <t>1354239</t>
         </is>
       </c>
+      <c r="B203" t="n">
+        <v>5</v>
+      </c>
       <c r="C203" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
-        <v>5</v>
-      </c>
-      <c r="B204" t="inlineStr">
+      <c r="A204" t="inlineStr">
         <is>
           <t>1354241</t>
         </is>
       </c>
+      <c r="B204" t="n">
+        <v>5</v>
+      </c>
       <c r="C204" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
-        <v>5</v>
-      </c>
-      <c r="B205" t="inlineStr">
+      <c r="A205" t="inlineStr">
         <is>
           <t>1356929</t>
         </is>
       </c>
+      <c r="B205" t="n">
+        <v>5</v>
+      </c>
       <c r="C205" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
-        <v>5</v>
-      </c>
-      <c r="B206" t="inlineStr">
+      <c r="A206" t="inlineStr">
         <is>
           <t>1359440</t>
         </is>
       </c>
+      <c r="B206" t="n">
+        <v>5</v>
+      </c>
       <c r="C206" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
-        <v>5</v>
-      </c>
-      <c r="B207" t="inlineStr">
+      <c r="A207" t="inlineStr">
         <is>
           <t>1359483</t>
         </is>
+      </c>
+      <c r="B207" t="n">
+        <v>5</v>
       </c>
       <c r="C207" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
-        <v>5</v>
-      </c>
-      <c r="B208" t="inlineStr">
+      <c r="A208" t="inlineStr">
         <is>
           <t>1361859</t>
         </is>
       </c>
+      <c r="B208" t="n">
+        <v>5</v>
+      </c>
       <c r="C208" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
-        <v>5</v>
-      </c>
-      <c r="B209" t="inlineStr">
+      <c r="A209" t="inlineStr">
         <is>
           <t>1362352</t>
         </is>
       </c>
+      <c r="B209" t="n">
+        <v>5</v>
+      </c>
       <c r="C209" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
-        <v>5</v>
-      </c>
-      <c r="B210" t="inlineStr">
+      <c r="A210" t="inlineStr">
         <is>
           <t>1362479</t>
         </is>
       </c>
+      <c r="B210" t="n">
+        <v>5</v>
+      </c>
       <c r="C210" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
-        <v>5</v>
-      </c>
-      <c r="B211" t="inlineStr">
+      <c r="A211" t="inlineStr">
         <is>
           <t>1362562</t>
         </is>
       </c>
+      <c r="B211" t="n">
+        <v>5</v>
+      </c>
       <c r="C211" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
-        <v>5</v>
-      </c>
-      <c r="B212" t="inlineStr">
+      <c r="A212" t="inlineStr">
         <is>
           <t>1363107</t>
         </is>
       </c>
+      <c r="B212" t="n">
+        <v>5</v>
+      </c>
       <c r="C212" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
-        <v>5</v>
-      </c>
-      <c r="B213" t="inlineStr">
+      <c r="A213" t="inlineStr">
         <is>
           <t>1363701</t>
         </is>
       </c>
+      <c r="B213" t="n">
+        <v>5</v>
+      </c>
       <c r="C213" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
-        <v>5</v>
-      </c>
-      <c r="B214" t="inlineStr">
+      <c r="A214" t="inlineStr">
         <is>
           <t>1364104</t>
         </is>
       </c>
+      <c r="B214" t="n">
+        <v>5</v>
+      </c>
       <c r="C214" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
-        <v>5</v>
-      </c>
-      <c r="B215" t="inlineStr">
+      <c r="A215" t="inlineStr">
         <is>
           <t>1366698</t>
         </is>
       </c>
+      <c r="B215" t="n">
+        <v>5</v>
+      </c>
       <c r="C215" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
-        <v>5</v>
-      </c>
-      <c r="B216" t="inlineStr">
+      <c r="A216" t="inlineStr">
         <is>
           <t>1366717</t>
         </is>
       </c>
+      <c r="B216" t="n">
+        <v>5</v>
+      </c>
       <c r="C216" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
-        <v>5</v>
-      </c>
-      <c r="B217" t="inlineStr">
+      <c r="A217" t="inlineStr">
         <is>
           <t>1369501</t>
         </is>
       </c>
+      <c r="B217" t="n">
+        <v>5</v>
+      </c>
       <c r="C217" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
-        <v>5</v>
-      </c>
-      <c r="B218" t="inlineStr">
+      <c r="A218" t="inlineStr">
         <is>
           <t>1369745</t>
         </is>
       </c>
+      <c r="B218" t="n">
+        <v>5</v>
+      </c>
       <c r="C218" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
-        <v>5</v>
-      </c>
-      <c r="B219" t="inlineStr">
+      <c r="A219" t="inlineStr">
         <is>
           <t>1370229</t>
         </is>
       </c>
+      <c r="B219" t="n">
+        <v>5</v>
+      </c>
       <c r="C219" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
-        <v>5</v>
-      </c>
-      <c r="B220" t="inlineStr">
+      <c r="A220" t="inlineStr">
         <is>
           <t>1371418</t>
         </is>
       </c>
+      <c r="B220" t="n">
+        <v>5</v>
+      </c>
       <c r="C220" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
-        <v>5</v>
-      </c>
-      <c r="B221" t="inlineStr">
+      <c r="A221" t="inlineStr">
         <is>
           <t>1372828</t>
         </is>
       </c>
+      <c r="B221" t="n">
+        <v>5</v>
+      </c>
       <c r="C221" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
-        <v>5</v>
-      </c>
-      <c r="B222" t="inlineStr">
+      <c r="A222" t="inlineStr">
         <is>
           <t>1372929</t>
         </is>
       </c>
+      <c r="B222" t="n">
+        <v>5</v>
+      </c>
       <c r="C222" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>1373331</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
         <v>4</v>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>1373331</t>
-        </is>
-      </c>
       <c r="C223" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
-        <v>5</v>
-      </c>
-      <c r="B224" t="inlineStr">
+      <c r="A224" t="inlineStr">
         <is>
           <t>1373567</t>
         </is>
       </c>
+      <c r="B224" t="n">
+        <v>5</v>
+      </c>
       <c r="C224" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
-        <v>5</v>
-      </c>
-      <c r="B225" t="inlineStr">
+      <c r="A225" t="inlineStr">
         <is>
           <t>1373746</t>
         </is>
       </c>
+      <c r="B225" t="n">
+        <v>5</v>
+      </c>
       <c r="C225" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
-        <v>5</v>
-      </c>
-      <c r="B226" t="inlineStr">
+      <c r="A226" t="inlineStr">
         <is>
           <t>1373830</t>
         </is>
       </c>
+      <c r="B226" t="n">
+        <v>5</v>
+      </c>
       <c r="C226" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
-        <v>5</v>
-      </c>
-      <c r="B227" t="inlineStr">
+      <c r="A227" t="inlineStr">
         <is>
           <t>1373838</t>
         </is>
       </c>
+      <c r="B227" t="n">
+        <v>5</v>
+      </c>
       <c r="C227" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
-        <v>5</v>
-      </c>
-      <c r="B228" t="inlineStr">
+      <c r="A228" t="inlineStr">
         <is>
           <t>1373997</t>
         </is>
       </c>
+      <c r="B228" t="n">
+        <v>5</v>
+      </c>
       <c r="C228" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
-        <v>5</v>
-      </c>
-      <c r="B229" t="inlineStr">
+      <c r="A229" t="inlineStr">
         <is>
           <t>1374329</t>
         </is>
       </c>
+      <c r="B229" t="n">
+        <v>5</v>
+      </c>
       <c r="C229" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
-        <v>5</v>
-      </c>
-      <c r="B230" t="inlineStr">
+      <c r="A230" t="inlineStr">
         <is>
           <t>1374419</t>
         </is>
       </c>
+      <c r="B230" t="n">
+        <v>5</v>
+      </c>
       <c r="C230" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>1374949</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
         <v>2</v>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>1374949</t>
-        </is>
-      </c>
       <c r="C231" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
-        <v>5</v>
-      </c>
-      <c r="B232" t="inlineStr">
+      <c r="A232" t="inlineStr">
         <is>
           <t>1374963</t>
         </is>
       </c>
+      <c r="B232" t="n">
+        <v>5</v>
+      </c>
       <c r="C232" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>1375251</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
         <v>3</v>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>1375251</t>
-        </is>
-      </c>
       <c r="C233" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
-        <v>1</v>
-      </c>
-      <c r="B234" t="inlineStr">
+      <c r="A234" t="inlineStr">
         <is>
           <t>1375974</t>
         </is>
       </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
       <c r="C234" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
-        <v>5</v>
-      </c>
-      <c r="B235" t="inlineStr">
+      <c r="A235" t="inlineStr">
         <is>
           <t>1377089</t>
         </is>
       </c>
+      <c r="B235" t="n">
+        <v>5</v>
+      </c>
       <c r="C235" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
-        <v>5</v>
-      </c>
-      <c r="B236" t="inlineStr">
+      <c r="A236" t="inlineStr">
         <is>
           <t>1377263</t>
         </is>
       </c>
+      <c r="B236" t="n">
+        <v>5</v>
+      </c>
       <c r="C236" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
-        <v>5</v>
-      </c>
-      <c r="B237" t="inlineStr">
+      <c r="A237" t="inlineStr">
         <is>
           <t>1379527</t>
         </is>
       </c>
+      <c r="B237" t="n">
+        <v>5</v>
+      </c>
       <c r="C237" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>1379916</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
         <v>3</v>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>1379916</t>
-        </is>
-      </c>
       <c r="C238" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
-        <v>5</v>
-      </c>
-      <c r="B239" t="inlineStr">
+      <c r="A239" t="inlineStr">
         <is>
           <t>1381151</t>
         </is>
       </c>
+      <c r="B239" t="n">
+        <v>5</v>
+      </c>
       <c r="C239" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
-        <v>5</v>
-      </c>
-      <c r="B240" t="inlineStr">
+      <c r="A240" t="inlineStr">
         <is>
           <t>1382279</t>
         </is>
       </c>
+      <c r="B240" t="n">
+        <v>5</v>
+      </c>
       <c r="C240" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
-        <v>5</v>
-      </c>
-      <c r="B241" t="inlineStr">
+      <c r="A241" t="inlineStr">
         <is>
           <t>1384308</t>
         </is>
       </c>
+      <c r="B241" t="n">
+        <v>5</v>
+      </c>
       <c r="C241" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
-        <v>5</v>
-      </c>
-      <c r="B242" t="inlineStr">
+      <c r="A242" t="inlineStr">
         <is>
           <t>1385018</t>
         </is>
       </c>
+      <c r="B242" t="n">
+        <v>5</v>
+      </c>
       <c r="C242" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
-        <v>5</v>
-      </c>
-      <c r="B243" t="inlineStr">
+      <c r="A243" t="inlineStr">
         <is>
           <t>1387361</t>
         </is>
       </c>
+      <c r="B243" t="n">
+        <v>5</v>
+      </c>
       <c r="C243" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
-        <v>5</v>
-      </c>
-      <c r="B244" t="inlineStr">
+      <c r="A244" t="inlineStr">
         <is>
           <t>1388075</t>
         </is>
       </c>
+      <c r="B244" t="n">
+        <v>5</v>
+      </c>
       <c r="C244" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
-        <v>5</v>
-      </c>
-      <c r="B245" t="inlineStr">
+      <c r="A245" t="inlineStr">
         <is>
           <t>1389002</t>
         </is>
       </c>
+      <c r="B245" t="n">
+        <v>5</v>
+      </c>
       <c r="C245" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
-        <v>5</v>
-      </c>
-      <c r="B246" t="inlineStr">
+      <c r="A246" t="inlineStr">
         <is>
           <t>1389021</t>
         </is>
       </c>
+      <c r="B246" t="n">
+        <v>5</v>
+      </c>
       <c r="C246" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
-        <v>5</v>
-      </c>
-      <c r="B247" t="inlineStr">
+      <c r="A247" t="inlineStr">
         <is>
           <t>1389222</t>
         </is>
       </c>
+      <c r="B247" t="n">
+        <v>5</v>
+      </c>
       <c r="C247" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
-        <v>5</v>
-      </c>
-      <c r="B248" t="inlineStr">
+      <c r="A248" t="inlineStr">
         <is>
           <t>1390126</t>
         </is>
       </c>
+      <c r="B248" t="n">
+        <v>5</v>
+      </c>
       <c r="C248" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
-        <v>5</v>
-      </c>
-      <c r="B249" t="inlineStr">
+      <c r="A249" t="inlineStr">
         <is>
           <t>1390249</t>
         </is>
       </c>
+      <c r="B249" t="n">
+        <v>5</v>
+      </c>
       <c r="C249" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
-        <v>5</v>
-      </c>
-      <c r="B250" t="inlineStr">
+      <c r="A250" t="inlineStr">
         <is>
           <t>1390343</t>
         </is>
       </c>
+      <c r="B250" t="n">
+        <v>5</v>
+      </c>
       <c r="C250" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
-        <v>5</v>
-      </c>
-      <c r="B251" t="inlineStr">
+      <c r="A251" t="inlineStr">
         <is>
           <t>1391870</t>
         </is>
       </c>
+      <c r="B251" t="n">
+        <v>5</v>
+      </c>
       <c r="C251" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
-        <v>5</v>
-      </c>
-      <c r="B252" t="inlineStr">
+      <c r="A252" t="inlineStr">
         <is>
           <t>1392345</t>
         </is>
       </c>
+      <c r="B252" t="n">
+        <v>5</v>
+      </c>
       <c r="C252" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
-        <v>5</v>
-      </c>
-      <c r="B253" t="inlineStr">
+      <c r="A253" t="inlineStr">
         <is>
           <t>1392851</t>
         </is>
       </c>
+      <c r="B253" t="n">
+        <v>5</v>
+      </c>
       <c r="C253" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>1393666</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
         <v>4</v>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>1393666</t>
-        </is>
-      </c>
       <c r="C254" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
-        <v>5</v>
-      </c>
-      <c r="B255" t="inlineStr">
+      <c r="A255" t="inlineStr">
         <is>
           <t>1394408</t>
         </is>
       </c>
+      <c r="B255" t="n">
+        <v>5</v>
+      </c>
       <c r="C255" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
-        <v>5</v>
-      </c>
-      <c r="B256" t="inlineStr">
+      <c r="A256" t="inlineStr">
         <is>
           <t>1395346</t>
         </is>
       </c>
+      <c r="B256" t="n">
+        <v>5</v>
+      </c>
       <c r="C256" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
-        <v>5</v>
-      </c>
-      <c r="B257" t="inlineStr">
+      <c r="A257" t="inlineStr">
         <is>
           <t>1396108</t>
         </is>
       </c>
+      <c r="B257" t="n">
+        <v>5</v>
+      </c>
       <c r="C257" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
-        <v>5</v>
-      </c>
-      <c r="B258" t="inlineStr">
+      <c r="A258" t="inlineStr">
         <is>
           <t>1397711</t>
         </is>
       </c>
+      <c r="B258" t="n">
+        <v>5</v>
+      </c>
       <c r="C258" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
-        <v>5</v>
-      </c>
-      <c r="B259" t="inlineStr">
+      <c r="A259" t="inlineStr">
         <is>
           <t>1399911</t>
         </is>
       </c>
+      <c r="B259" t="n">
+        <v>5</v>
+      </c>
       <c r="C259" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
-        <v>5</v>
-      </c>
-      <c r="B260" t="inlineStr">
+      <c r="A260" t="inlineStr">
         <is>
           <t>1400470</t>
         </is>
       </c>
+      <c r="B260" t="n">
+        <v>5</v>
+      </c>
       <c r="C260" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>1401131</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
         <v>3.5</v>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>1401131</t>
-        </is>
       </c>
       <c r="C261" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
-        <v>5</v>
-      </c>
-      <c r="B262" t="inlineStr">
+      <c r="A262" t="inlineStr">
         <is>
           <t>1401337</t>
         </is>
       </c>
+      <c r="B262" t="n">
+        <v>5</v>
+      </c>
       <c r="C262" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
-        <v>5</v>
-      </c>
-      <c r="B263" t="inlineStr">
+      <c r="A263" t="inlineStr">
         <is>
           <t>1401699</t>
         </is>
       </c>
+      <c r="B263" t="n">
+        <v>5</v>
+      </c>
       <c r="C263" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
-        <v>5</v>
-      </c>
-      <c r="B264" t="inlineStr">
+      <c r="A264" t="inlineStr">
         <is>
           <t>1402097</t>
         </is>
       </c>
+      <c r="B264" t="n">
+        <v>5</v>
+      </c>
       <c r="C264" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
-        <v>5</v>
-      </c>
-      <c r="B265" t="inlineStr">
+      <c r="A265" t="inlineStr">
         <is>
           <t>1402420</t>
         </is>
       </c>
+      <c r="B265" t="n">
+        <v>5</v>
+      </c>
       <c r="C265" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
-        <v>5</v>
-      </c>
-      <c r="B266" t="inlineStr">
+      <c r="A266" t="inlineStr">
         <is>
           <t>1403040</t>
         </is>
       </c>
+      <c r="B266" t="n">
+        <v>5</v>
+      </c>
       <c r="C266" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>1404249</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
         <v>4</v>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>1404249</t>
-        </is>
-      </c>
       <c r="C267" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
-        <v>5</v>
-      </c>
-      <c r="B268" t="inlineStr">
+      <c r="A268" t="inlineStr">
         <is>
           <t>1404945</t>
         </is>
       </c>
+      <c r="B268" t="n">
+        <v>5</v>
+      </c>
       <c r="C268" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
-        <v>5</v>
-      </c>
-      <c r="B269" t="inlineStr">
+      <c r="A269" t="inlineStr">
         <is>
           <t>1408543</t>
         </is>
       </c>
+      <c r="B269" t="n">
+        <v>5</v>
+      </c>
       <c r="C269" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
-        <v>5</v>
-      </c>
-      <c r="B270" t="inlineStr">
+      <c r="A270" t="inlineStr">
         <is>
           <t>1409499</t>
         </is>
       </c>
+      <c r="B270" t="n">
+        <v>5</v>
+      </c>
       <c r="C270" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
-        <v>5</v>
-      </c>
-      <c r="B271" t="inlineStr">
+      <c r="A271" t="inlineStr">
         <is>
           <t>1410053</t>
         </is>
       </c>
+      <c r="B271" t="n">
+        <v>5</v>
+      </c>
       <c r="C271" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="n">
-        <v>5</v>
-      </c>
-      <c r="B272" t="inlineStr">
+      <c r="A272" t="inlineStr">
         <is>
           <t>1411678</t>
         </is>
       </c>
+      <c r="B272" t="n">
+        <v>5</v>
+      </c>
       <c r="C272" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
-        <v>5</v>
-      </c>
-      <c r="B273" t="inlineStr">
+      <c r="A273" t="inlineStr">
         <is>
           <t>1412527</t>
         </is>
       </c>
+      <c r="B273" t="n">
+        <v>5</v>
+      </c>
       <c r="C273" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
-        <v>5</v>
-      </c>
-      <c r="B274" t="inlineStr">
+      <c r="A274" t="inlineStr">
         <is>
           <t>1412709</t>
         </is>
       </c>
+      <c r="B274" t="n">
+        <v>5</v>
+      </c>
       <c r="C274" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>1413434</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
         <v>3</v>
       </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>1413434</t>
-        </is>
-      </c>
       <c r="C275" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
-        <v>5</v>
-      </c>
-      <c r="B276" t="inlineStr">
+      <c r="A276" t="inlineStr">
         <is>
           <t>1414677</t>
         </is>
       </c>
+      <c r="B276" t="n">
+        <v>5</v>
+      </c>
       <c r="C276" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="n">
-        <v>5</v>
-      </c>
-      <c r="B277" t="inlineStr">
+      <c r="A277" t="inlineStr">
         <is>
           <t>1415071</t>
         </is>
       </c>
+      <c r="B277" t="n">
+        <v>5</v>
+      </c>
       <c r="C277" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="n">
-        <v>5</v>
-      </c>
-      <c r="B278" t="inlineStr">
+      <c r="A278" t="inlineStr">
         <is>
           <t>1415156</t>
         </is>
       </c>
+      <c r="B278" t="n">
+        <v>5</v>
+      </c>
       <c r="C278" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="n">
-        <v>5</v>
-      </c>
-      <c r="B279" t="inlineStr">
+      <c r="A279" t="inlineStr">
         <is>
           <t>1415175</t>
         </is>
       </c>
+      <c r="B279" t="n">
+        <v>5</v>
+      </c>
       <c r="C279" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
-        <v>5</v>
-      </c>
-      <c r="B280" t="inlineStr">
+      <c r="A280" t="inlineStr">
         <is>
           <t>1416298</t>
         </is>
       </c>
+      <c r="B280" t="n">
+        <v>5</v>
+      </c>
       <c r="C280" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
-        <v>5</v>
-      </c>
-      <c r="B281" t="inlineStr">
+      <c r="A281" t="inlineStr">
         <is>
           <t>1417204</t>
         </is>
       </c>
+      <c r="B281" t="n">
+        <v>5</v>
+      </c>
       <c r="C281" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
-        <v>5</v>
-      </c>
-      <c r="B282" t="inlineStr">
+      <c r="A282" t="inlineStr">
         <is>
           <t>1417234</t>
         </is>
       </c>
+      <c r="B282" t="n">
+        <v>5</v>
+      </c>
       <c r="C282" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
-        <v>5</v>
-      </c>
-      <c r="B283" t="inlineStr">
+      <c r="A283" t="inlineStr">
         <is>
           <t>1417540</t>
         </is>
       </c>
+      <c r="B283" t="n">
+        <v>5</v>
+      </c>
       <c r="C283" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>1419528</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
         <v>4</v>
       </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>1419528</t>
-        </is>
-      </c>
       <c r="C284" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
-        <v>5</v>
-      </c>
-      <c r="B285" t="inlineStr">
+      <c r="A285" t="inlineStr">
         <is>
           <t>1420665</t>
         </is>
       </c>
+      <c r="B285" t="n">
+        <v>5</v>
+      </c>
       <c r="C285" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
-        <v>5</v>
-      </c>
-      <c r="B286" t="inlineStr">
+      <c r="A286" t="inlineStr">
         <is>
           <t>1423284</t>
         </is>
       </c>
+      <c r="B286" t="n">
+        <v>5</v>
+      </c>
       <c r="C286" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="n">
-        <v>5</v>
-      </c>
-      <c r="B287" t="inlineStr">
+      <c r="A287" t="inlineStr">
         <is>
           <t>1423786</t>
         </is>
       </c>
+      <c r="B287" t="n">
+        <v>5</v>
+      </c>
       <c r="C287" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="n">
-        <v>5</v>
-      </c>
-      <c r="B288" t="inlineStr">
+      <c r="A288" t="inlineStr">
         <is>
           <t>1424608</t>
         </is>
       </c>
+      <c r="B288" t="n">
+        <v>5</v>
+      </c>
       <c r="C288" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="n">
-        <v>5</v>
-      </c>
-      <c r="B289" t="inlineStr">
+      <c r="A289" t="inlineStr">
         <is>
           <t>1424806</t>
         </is>
       </c>
+      <c r="B289" t="n">
+        <v>5</v>
+      </c>
       <c r="C289" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="n">
-        <v>5</v>
-      </c>
-      <c r="B290" t="inlineStr">
+      <c r="A290" t="inlineStr">
         <is>
           <t>1425137</t>
         </is>
       </c>
+      <c r="B290" t="n">
+        <v>5</v>
+      </c>
       <c r="C290" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="n">
-        <v>5</v>
-      </c>
-      <c r="B291" t="inlineStr">
+      <c r="A291" t="inlineStr">
         <is>
           <t>1425488</t>
         </is>
       </c>
+      <c r="B291" t="n">
+        <v>5</v>
+      </c>
       <c r="C291" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n">
-        <v>5</v>
-      </c>
-      <c r="B292" t="inlineStr">
+      <c r="A292" t="inlineStr">
         <is>
           <t>1425641</t>
         </is>
       </c>
+      <c r="B292" t="n">
+        <v>5</v>
+      </c>
       <c r="C292" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="n">
-        <v>5</v>
-      </c>
-      <c r="B293" t="inlineStr">
+      <c r="A293" t="inlineStr">
         <is>
           <t>1430075</t>
         </is>
       </c>
+      <c r="B293" t="n">
+        <v>5</v>
+      </c>
       <c r="C293" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="n">
-        <v>5</v>
-      </c>
-      <c r="B294" t="inlineStr">
+      <c r="A294" t="inlineStr">
         <is>
           <t>1430081</t>
         </is>
       </c>
+      <c r="B294" t="n">
+        <v>5</v>
+      </c>
       <c r="C294" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="n">
-        <v>5</v>
-      </c>
-      <c r="B295" t="inlineStr">
+      <c r="A295" t="inlineStr">
         <is>
           <t>1431129</t>
         </is>
       </c>
+      <c r="B295" t="n">
+        <v>5</v>
+      </c>
       <c r="C295" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="n">
-        <v>5</v>
-      </c>
-      <c r="B296" t="inlineStr">
+      <c r="A296" t="inlineStr">
         <is>
           <t>1431207</t>
         </is>
       </c>
+      <c r="B296" t="n">
+        <v>5</v>
+      </c>
       <c r="C296" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="n">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>1431442</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
         <v>4</v>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>1431442</t>
-        </is>
-      </c>
       <c r="C297" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="n">
-        <v>5</v>
-      </c>
-      <c r="B298" t="inlineStr">
+      <c r="A298" t="inlineStr">
         <is>
           <t>1434493</t>
         </is>
       </c>
+      <c r="B298" t="n">
+        <v>5</v>
+      </c>
       <c r="C298" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="n">
-        <v>5</v>
-      </c>
-      <c r="B299" t="inlineStr">
+      <c r="A299" t="inlineStr">
         <is>
           <t>1434612</t>
         </is>
       </c>
+      <c r="B299" t="n">
+        <v>5</v>
+      </c>
       <c r="C299" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="n">
-        <v>5</v>
-      </c>
-      <c r="B300" t="inlineStr">
+      <c r="A300" t="inlineStr">
         <is>
           <t>1434768</t>
         </is>
       </c>
+      <c r="B300" t="n">
+        <v>5</v>
+      </c>
       <c r="C300" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="n">
-        <v>5</v>
-      </c>
-      <c r="B301" t="inlineStr">
+      <c r="A301" t="inlineStr">
         <is>
           <t>1437315</t>
         </is>
       </c>
+      <c r="B301" t="n">
+        <v>5</v>
+      </c>
       <c r="C301" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="n">
-        <v>5</v>
-      </c>
-      <c r="B302" t="inlineStr">
+      <c r="A302" t="inlineStr">
         <is>
           <t>1438367</t>
         </is>
       </c>
+      <c r="B302" t="n">
+        <v>5</v>
+      </c>
       <c r="C302" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="n">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>1438577</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
         <v>4</v>
       </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>1438577</t>
-        </is>
-      </c>
       <c r="C303" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="n">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>1439002</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
         <v>4</v>
       </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>1439002</t>
-        </is>
-      </c>
       <c r="C304" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="n">
-        <v>5</v>
-      </c>
-      <c r="B305" t="inlineStr">
+      <c r="A305" t="inlineStr">
         <is>
           <t>1440985</t>
         </is>
       </c>
+      <c r="B305" t="n">
+        <v>5</v>
+      </c>
       <c r="C305" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="n">
-        <v>5</v>
-      </c>
-      <c r="B306" t="inlineStr">
+      <c r="A306" t="inlineStr">
         <is>
           <t>1441279</t>
         </is>
       </c>
+      <c r="B306" t="n">
+        <v>5</v>
+      </c>
       <c r="C306" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="n">
-        <v>5</v>
-      </c>
-      <c r="B307" t="inlineStr">
+      <c r="A307" t="inlineStr">
         <is>
           <t>1441330</t>
         </is>
       </c>
+      <c r="B307" t="n">
+        <v>5</v>
+      </c>
       <c r="C307" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n">
-        <v>5</v>
-      </c>
-      <c r="B308" t="inlineStr">
+      <c r="A308" t="inlineStr">
         <is>
           <t>1441896</t>
         </is>
       </c>
+      <c r="B308" t="n">
+        <v>5</v>
+      </c>
       <c r="C308" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="n">
-        <v>5</v>
-      </c>
-      <c r="B309" t="inlineStr">
+      <c r="A309" t="inlineStr">
         <is>
           <t>1443523</t>
         </is>
       </c>
+      <c r="B309" t="n">
+        <v>5</v>
+      </c>
       <c r="C309" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="n">
-        <v>5</v>
-      </c>
-      <c r="B310" t="inlineStr">
+      <c r="A310" t="inlineStr">
         <is>
           <t>1444353</t>
         </is>
       </c>
+      <c r="B310" t="n">
+        <v>5</v>
+      </c>
       <c r="C310" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="n">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>1445438</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
         <v>2</v>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>1445438</t>
-        </is>
-      </c>
       <c r="C311" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="n">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>1446140</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
         <v>2</v>
       </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>1446140</t>
-        </is>
-      </c>
       <c r="C312" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="n">
-        <v>5</v>
-      </c>
-      <c r="B313" t="inlineStr">
+      <c r="A313" t="inlineStr">
         <is>
           <t>1447697</t>
         </is>
       </c>
+      <c r="B313" t="n">
+        <v>5</v>
+      </c>
       <c r="C313" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="n">
-        <v>5</v>
-      </c>
-      <c r="B314" t="inlineStr">
+      <c r="A314" t="inlineStr">
         <is>
           <t>1450242</t>
         </is>
       </c>
+      <c r="B314" t="n">
+        <v>5</v>
+      </c>
       <c r="C314" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="n">
-        <v>5</v>
-      </c>
-      <c r="B315" t="inlineStr">
+      <c r="A315" t="inlineStr">
         <is>
           <t>1451004</t>
         </is>
       </c>
+      <c r="B315" t="n">
+        <v>5</v>
+      </c>
       <c r="C315" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="n">
-        <v>5</v>
-      </c>
-      <c r="B316" t="inlineStr">
+      <c r="A316" t="inlineStr">
         <is>
           <t>1453582</t>
         </is>
       </c>
+      <c r="B316" t="n">
+        <v>5</v>
+      </c>
       <c r="C316" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="n">
-        <v>5</v>
-      </c>
-      <c r="B317" t="inlineStr">
+      <c r="A317" t="inlineStr">
         <is>
           <t>1455552</t>
         </is>
       </c>
+      <c r="B317" t="n">
+        <v>5</v>
+      </c>
       <c r="C317" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="n">
-        <v>5</v>
-      </c>
-      <c r="B318" t="inlineStr">
+      <c r="A318" t="inlineStr">
         <is>
           <t>1459128</t>
         </is>
       </c>
+      <c r="B318" t="n">
+        <v>5</v>
+      </c>
       <c r="C318" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="n">
-        <v>1</v>
-      </c>
-      <c r="B319" t="inlineStr">
+      <c r="A319" t="inlineStr">
         <is>
           <t>1464451</t>
         </is>
       </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
       <c r="C319" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="n">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>1464986</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
         <v>4</v>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>1464986</t>
-        </is>
-      </c>
       <c r="C320" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="n">
-        <v>1</v>
-      </c>
-      <c r="B321" t="inlineStr">
+      <c r="A321" t="inlineStr">
         <is>
           <t>1465013</t>
         </is>
       </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
       <c r="C321" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n">
-        <v>5</v>
-      </c>
-      <c r="B322" t="inlineStr">
+      <c r="A322" t="inlineStr">
         <is>
           <t>1466136</t>
         </is>
       </c>
+      <c r="B322" t="n">
+        <v>5</v>
+      </c>
       <c r="C322" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="n">
-        <v>5</v>
-      </c>
-      <c r="B323" t="inlineStr">
+      <c r="A323" t="inlineStr">
         <is>
           <t>1466328</t>
         </is>
       </c>
+      <c r="B323" t="n">
+        <v>5</v>
+      </c>
       <c r="C323" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="n">
-        <v>5</v>
-      </c>
-      <c r="B324" t="inlineStr">
+      <c r="A324" t="inlineStr">
         <is>
           <t>1466574</t>
         </is>
       </c>
+      <c r="B324" t="n">
+        <v>5</v>
+      </c>
       <c r="C324" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
-        <v>5</v>
-      </c>
-      <c r="B325" t="inlineStr">
+      <c r="A325" t="inlineStr">
         <is>
           <t>1468256</t>
         </is>
       </c>
+      <c r="B325" t="n">
+        <v>5</v>
+      </c>
       <c r="C325" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n">
-        <v>5</v>
-      </c>
-      <c r="B326" t="inlineStr">
+      <c r="A326" t="inlineStr">
         <is>
           <t>1468775</t>
         </is>
       </c>
+      <c r="B326" t="n">
+        <v>5</v>
+      </c>
       <c r="C326" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n">
-        <v>5</v>
-      </c>
-      <c r="B327" t="inlineStr">
+      <c r="A327" t="inlineStr">
         <is>
           <t>1471571</t>
         </is>
       </c>
+      <c r="B327" t="n">
+        <v>5</v>
+      </c>
       <c r="C327" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
-        <v>5</v>
-      </c>
-      <c r="B328" t="inlineStr">
+      <c r="A328" t="inlineStr">
         <is>
           <t>1471601</t>
         </is>
       </c>
+      <c r="B328" t="n">
+        <v>5</v>
+      </c>
       <c r="C328" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="n">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>1472491</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
         <v>3</v>
       </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>1472491</t>
-        </is>
-      </c>
       <c r="C329" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n">
-        <v>5</v>
-      </c>
-      <c r="B330" t="inlineStr">
+      <c r="A330" t="inlineStr">
         <is>
           <t>1472576</t>
         </is>
       </c>
+      <c r="B330" t="n">
+        <v>5</v>
+      </c>
       <c r="C330" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n">
-        <v>5</v>
-      </c>
-      <c r="B331" t="inlineStr">
+      <c r="A331" t="inlineStr">
         <is>
           <t>1473226</t>
         </is>
       </c>
+      <c r="B331" t="n">
+        <v>5</v>
+      </c>
       <c r="C331" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="n">
-        <v>5</v>
-      </c>
-      <c r="B332" t="inlineStr">
+      <c r="A332" t="inlineStr">
         <is>
           <t>1473664</t>
         </is>
       </c>
+      <c r="B332" t="n">
+        <v>5</v>
+      </c>
       <c r="C332" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="n">
-        <v>5</v>
-      </c>
-      <c r="B333" t="inlineStr">
+      <c r="A333" t="inlineStr">
         <is>
           <t>1474735</t>
         </is>
       </c>
+      <c r="B333" t="n">
+        <v>5</v>
+      </c>
       <c r="C333" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="n">
-        <v>5</v>
-      </c>
-      <c r="B334" t="inlineStr">
+      <c r="A334" t="inlineStr">
         <is>
           <t>1475693</t>
         </is>
       </c>
+      <c r="B334" t="n">
+        <v>5</v>
+      </c>
       <c r="C334" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="n">
-        <v>5</v>
-      </c>
-      <c r="B335" t="inlineStr">
+      <c r="A335" t="inlineStr">
         <is>
           <t>1476302</t>
         </is>
       </c>
+      <c r="B335" t="n">
+        <v>5</v>
+      </c>
       <c r="C335" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="n">
-        <v>5</v>
-      </c>
-      <c r="B336" t="inlineStr">
+      <c r="A336" t="inlineStr">
         <is>
           <t>1477873</t>
         </is>
       </c>
+      <c r="B336" t="n">
+        <v>5</v>
+      </c>
       <c r="C336" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="n">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>1478694</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
         <v>4</v>
       </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>1478694</t>
-        </is>
-      </c>
       <c r="C337" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="n">
-        <v>1</v>
-      </c>
-      <c r="B338" t="inlineStr">
+      <c r="A338" t="inlineStr">
         <is>
           <t>1480228</t>
         </is>
       </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
       <c r="C338" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="n">
-        <v>5</v>
-      </c>
-      <c r="B339" t="inlineStr">
+      <c r="A339" t="inlineStr">
         <is>
           <t>1481251</t>
         </is>
       </c>
+      <c r="B339" t="n">
+        <v>5</v>
+      </c>
       <c r="C339" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="n">
-        <v>5</v>
-      </c>
-      <c r="B340" t="inlineStr">
+      <c r="A340" t="inlineStr">
         <is>
           <t>1482776</t>
         </is>
       </c>
+      <c r="B340" t="n">
+        <v>5</v>
+      </c>
       <c r="C340" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
-        <v>5</v>
-      </c>
-      <c r="B341" t="inlineStr">
+      <c r="A341" t="inlineStr">
         <is>
           <t>1482843</t>
         </is>
       </c>
+      <c r="B341" t="n">
+        <v>5</v>
+      </c>
       <c r="C341" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
-        <v>1</v>
-      </c>
-      <c r="B342" t="inlineStr">
+      <c r="A342" t="inlineStr">
         <is>
           <t>1483136</t>
         </is>
       </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
       <c r="C342" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
-        <v>5</v>
-      </c>
-      <c r="B343" t="inlineStr">
+      <c r="A343" t="inlineStr">
         <is>
           <t>1483639</t>
         </is>
       </c>
+      <c r="B343" t="n">
+        <v>5</v>
+      </c>
       <c r="C343" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
-        <v>5</v>
-      </c>
-      <c r="B344" t="inlineStr">
+      <c r="A344" t="inlineStr">
         <is>
           <t>1484012</t>
         </is>
       </c>
+      <c r="B344" t="n">
+        <v>5</v>
+      </c>
       <c r="C344" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
-        <v>5</v>
-      </c>
-      <c r="B345" t="inlineStr">
+      <c r="A345" t="inlineStr">
         <is>
           <t>1484336</t>
         </is>
       </c>
+      <c r="B345" t="n">
+        <v>5</v>
+      </c>
       <c r="C345" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="n">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>1484948</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
         <v>4</v>
       </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>1484948</t>
-        </is>
-      </c>
       <c r="C346" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="n">
-        <v>5</v>
-      </c>
-      <c r="B347" t="inlineStr">
+      <c r="A347" t="inlineStr">
         <is>
           <t>1484955</t>
         </is>
       </c>
+      <c r="B347" t="n">
+        <v>5</v>
+      </c>
       <c r="C347" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="n">
-        <v>5</v>
-      </c>
-      <c r="B348" t="inlineStr">
+      <c r="A348" t="inlineStr">
         <is>
           <t>1485087</t>
         </is>
       </c>
+      <c r="B348" t="n">
+        <v>5</v>
+      </c>
       <c r="C348" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="n">
-        <v>5</v>
-      </c>
-      <c r="B349" t="inlineStr">
+      <c r="A349" t="inlineStr">
         <is>
           <t>1485434</t>
         </is>
       </c>
+      <c r="B349" t="n">
+        <v>5</v>
+      </c>
       <c r="C349" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="n">
-        <v>5</v>
-      </c>
-      <c r="B350" t="inlineStr">
+      <c r="A350" t="inlineStr">
         <is>
           <t>1485923</t>
         </is>
       </c>
+      <c r="B350" t="n">
+        <v>5</v>
+      </c>
       <c r="C350" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="n">
-        <v>5</v>
-      </c>
-      <c r="B351" t="inlineStr">
+      <c r="A351" t="inlineStr">
         <is>
           <t>1485949</t>
         </is>
       </c>
+      <c r="B351" t="n">
+        <v>5</v>
+      </c>
       <c r="C351" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="n">
-        <v>5</v>
-      </c>
-      <c r="B352" t="inlineStr">
+      <c r="A352" t="inlineStr">
         <is>
           <t>1485956</t>
         </is>
       </c>
+      <c r="B352" t="n">
+        <v>5</v>
+      </c>
       <c r="C352" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="n">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>1486080</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
         <v>2</v>
       </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>1486080</t>
-        </is>
-      </c>
       <c r="C353" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="n">
-        <v>1</v>
-      </c>
-      <c r="B354" t="inlineStr">
+      <c r="A354" t="inlineStr">
         <is>
           <t>1486592</t>
         </is>
       </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
       <c r="C354" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="n">
-        <v>5</v>
-      </c>
-      <c r="B355" t="inlineStr">
+      <c r="A355" t="inlineStr">
         <is>
           <t>1486900</t>
         </is>
       </c>
+      <c r="B355" t="n">
+        <v>5</v>
+      </c>
       <c r="C355" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="n">
-        <v>5</v>
-      </c>
-      <c r="B356" t="inlineStr">
+      <c r="A356" t="inlineStr">
         <is>
           <t>1486931</t>
         </is>
       </c>
+      <c r="B356" t="n">
+        <v>5</v>
+      </c>
       <c r="C356" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="n">
-        <v>5</v>
-      </c>
-      <c r="B357" t="inlineStr">
+      <c r="A357" t="inlineStr">
         <is>
           <t>1487910</t>
         </is>
       </c>
+      <c r="B357" t="n">
+        <v>5</v>
+      </c>
       <c r="C357" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="n">
-        <v>5</v>
-      </c>
-      <c r="B358" t="inlineStr">
+      <c r="A358" t="inlineStr">
         <is>
           <t>1488026</t>
         </is>
       </c>
+      <c r="B358" t="n">
+        <v>5</v>
+      </c>
       <c r="C358" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="n">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>1488068</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
         <v>4</v>
       </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>1488068</t>
-        </is>
-      </c>
       <c r="C359" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="n">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>1488236</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
         <v>3</v>
       </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>1488236</t>
-        </is>
-      </c>
       <c r="C360" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="n">
-        <v>5</v>
-      </c>
-      <c r="B361" t="inlineStr">
+      <c r="A361" t="inlineStr">
         <is>
           <t>1489071</t>
         </is>
       </c>
+      <c r="B361" t="n">
+        <v>5</v>
+      </c>
       <c r="C361" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="n">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>1489136</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
         <v>4</v>
       </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>1489136</t>
-        </is>
-      </c>
       <c r="C362" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="n">
-        <v>5</v>
-      </c>
-      <c r="B363" t="inlineStr">
+      <c r="A363" t="inlineStr">
         <is>
           <t>1489237</t>
         </is>
       </c>
+      <c r="B363" t="n">
+        <v>5</v>
+      </c>
       <c r="C363" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="n">
-        <v>5</v>
-      </c>
-      <c r="B364" t="inlineStr">
+      <c r="A364" t="inlineStr">
         <is>
           <t>1489309</t>
         </is>
       </c>
+      <c r="B364" t="n">
+        <v>5</v>
+      </c>
       <c r="C364" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="n">
-        <v>5</v>
-      </c>
-      <c r="B365" t="inlineStr">
+      <c r="A365" t="inlineStr">
         <is>
           <t>1489845</t>
         </is>
       </c>
+      <c r="B365" t="n">
+        <v>5</v>
+      </c>
       <c r="C365" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="n">
-        <v>5</v>
-      </c>
-      <c r="B366" t="inlineStr">
+      <c r="A366" t="inlineStr">
         <is>
           <t>1490501</t>
         </is>
       </c>
+      <c r="B366" t="n">
+        <v>5</v>
+      </c>
       <c r="C366" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="n">
-        <v>5</v>
-      </c>
-      <c r="B367" t="inlineStr">
+      <c r="A367" t="inlineStr">
         <is>
           <t>1491342</t>
         </is>
       </c>
+      <c r="B367" t="n">
+        <v>5</v>
+      </c>
       <c r="C367" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="n">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>1491800</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
         <v>3</v>
       </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>1491800</t>
-        </is>
-      </c>
       <c r="C368" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="n">
-        <v>5</v>
-      </c>
-      <c r="B369" t="inlineStr">
+      <c r="A369" t="inlineStr">
         <is>
           <t>1491892</t>
         </is>
       </c>
+      <c r="B369" t="n">
+        <v>5</v>
+      </c>
       <c r="C369" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="n">
-        <v>5</v>
-      </c>
-      <c r="B370" t="inlineStr">
+      <c r="A370" t="inlineStr">
         <is>
           <t>1493069</t>
         </is>
       </c>
+      <c r="B370" t="n">
+        <v>5</v>
+      </c>
       <c r="C370" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="n">
-        <v>1</v>
-      </c>
-      <c r="B371" t="inlineStr">
+      <c r="A371" t="inlineStr">
         <is>
           <t>1493091</t>
         </is>
       </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
       <c r="C371" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="n">
-        <v>5</v>
-      </c>
-      <c r="B372" t="inlineStr">
+      <c r="A372" t="inlineStr">
         <is>
           <t>1493290</t>
         </is>
       </c>
+      <c r="B372" t="n">
+        <v>5</v>
+      </c>
       <c r="C372" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="n">
-        <v>5</v>
-      </c>
-      <c r="B373" t="inlineStr">
+      <c r="A373" t="inlineStr">
         <is>
           <t>1494662</t>
         </is>
       </c>
+      <c r="B373" t="n">
+        <v>5</v>
+      </c>
       <c r="C373" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="n">
-        <v>5</v>
-      </c>
-      <c r="B374" t="inlineStr">
+      <c r="A374" t="inlineStr">
         <is>
           <t>1496614</t>
         </is>
       </c>
+      <c r="B374" t="n">
+        <v>5</v>
+      </c>
       <c r="C374" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="n">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>1497085</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
         <v>4</v>
       </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>1497085</t>
-        </is>
-      </c>
       <c r="C375" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="n">
-        <v>5</v>
-      </c>
-      <c r="B376" t="inlineStr">
+      <c r="A376" t="inlineStr">
         <is>
           <t>174875</t>
         </is>
       </c>
+      <c r="B376" t="n">
+        <v>5</v>
+      </c>
       <c r="C376" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="n">
-        <v>5</v>
-      </c>
-      <c r="B377" t="inlineStr">
+      <c r="A377" t="inlineStr">
         <is>
           <t>193030</t>
         </is>
       </c>
+      <c r="B377" t="n">
+        <v>5</v>
+      </c>
       <c r="C377" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="n">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>195904</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
         <v>4</v>
       </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>195904</t>
-        </is>
-      </c>
       <c r="C378" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="n">
-        <v>5</v>
-      </c>
-      <c r="B379" t="inlineStr">
+      <c r="A379" t="inlineStr">
         <is>
           <t>200935</t>
         </is>
       </c>
+      <c r="B379" t="n">
+        <v>5</v>
+      </c>
       <c r="C379" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="n">
-        <v>5</v>
-      </c>
-      <c r="B380" t="inlineStr">
+      <c r="A380" t="inlineStr">
         <is>
           <t>202730</t>
         </is>
       </c>
+      <c r="B380" t="n">
+        <v>5</v>
+      </c>
       <c r="C380" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="n">
-        <v>5</v>
-      </c>
-      <c r="B381" t="inlineStr">
+      <c r="A381" t="inlineStr">
         <is>
           <t>214292</t>
         </is>
       </c>
+      <c r="B381" t="n">
+        <v>5</v>
+      </c>
       <c r="C381" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="n">
-        <v>5</v>
-      </c>
-      <c r="B382" t="inlineStr">
+      <c r="A382" t="inlineStr">
         <is>
           <t>221029</t>
         </is>
       </c>
+      <c r="B382" t="n">
+        <v>5</v>
+      </c>
       <c r="C382" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="n">
-        <v>5</v>
-      </c>
-      <c r="B383" t="inlineStr">
+      <c r="A383" t="inlineStr">
         <is>
           <t>226213</t>
         </is>
       </c>
+      <c r="B383" t="n">
+        <v>5</v>
+      </c>
       <c r="C383" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="n">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>231208</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
         <v>2</v>
       </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>231208</t>
-        </is>
-      </c>
       <c r="C384" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="n">
-        <v>5</v>
-      </c>
-      <c r="B385" t="inlineStr">
+      <c r="A385" t="inlineStr">
         <is>
           <t>239704</t>
         </is>
       </c>
+      <c r="B385" t="n">
+        <v>5</v>
+      </c>
       <c r="C385" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="n">
-        <v>5</v>
-      </c>
-      <c r="B386" t="inlineStr">
+      <c r="A386" t="inlineStr">
         <is>
           <t>244915</t>
         </is>
       </c>
+      <c r="B386" t="n">
+        <v>5</v>
+      </c>
       <c r="C386" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
-        <v>5</v>
-      </c>
-      <c r="B387" t="inlineStr">
+      <c r="A387" t="inlineStr">
         <is>
           <t>286927</t>
         </is>
       </c>
+      <c r="B387" t="n">
+        <v>5</v>
+      </c>
       <c r="C387" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
-        <v>5</v>
-      </c>
-      <c r="B388" t="inlineStr">
+      <c r="A388" t="inlineStr">
         <is>
           <t>295016</t>
         </is>
       </c>
+      <c r="B388" t="n">
+        <v>5</v>
+      </c>
       <c r="C388" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="n">
-        <v>5</v>
-      </c>
-      <c r="B389" t="inlineStr">
+      <c r="A389" t="inlineStr">
         <is>
           <t>310159</t>
         </is>
       </c>
+      <c r="B389" t="n">
+        <v>5</v>
+      </c>
       <c r="C389" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="n">
-        <v>5</v>
-      </c>
-      <c r="B390" t="inlineStr">
+      <c r="A390" t="inlineStr">
         <is>
           <t>350914</t>
         </is>
       </c>
+      <c r="B390" t="n">
+        <v>5</v>
+      </c>
       <c r="C390" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="n">
-        <v>5</v>
-      </c>
-      <c r="B391" t="inlineStr">
+      <c r="A391" t="inlineStr">
         <is>
           <t>351441</t>
         </is>
       </c>
+      <c r="B391" t="n">
+        <v>5</v>
+      </c>
       <c r="C391" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="n">
-        <v>5</v>
-      </c>
-      <c r="B392" t="inlineStr">
+      <c r="A392" t="inlineStr">
         <is>
           <t>363334</t>
         </is>
       </c>
+      <c r="B392" t="n">
+        <v>5</v>
+      </c>
       <c r="C392" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="n">
-        <v>5</v>
-      </c>
-      <c r="B393" t="inlineStr">
+      <c r="A393" t="inlineStr">
         <is>
           <t>36735</t>
         </is>
       </c>
+      <c r="B393" t="n">
+        <v>5</v>
+      </c>
       <c r="C393" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="n">
-        <v>5</v>
-      </c>
-      <c r="B394" t="inlineStr">
+      <c r="A394" t="inlineStr">
         <is>
           <t>372196</t>
         </is>
       </c>
+      <c r="B394" t="n">
+        <v>5</v>
+      </c>
       <c r="C394" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="n">
-        <v>5</v>
-      </c>
-      <c r="B395" t="inlineStr">
+      <c r="A395" t="inlineStr">
         <is>
           <t>372733</t>
         </is>
       </c>
+      <c r="B395" t="n">
+        <v>5</v>
+      </c>
       <c r="C395" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="n">
-        <v>5</v>
-      </c>
-      <c r="B396" t="inlineStr">
+      <c r="A396" t="inlineStr">
         <is>
           <t>377170</t>
         </is>
       </c>
+      <c r="B396" t="n">
+        <v>5</v>
+      </c>
       <c r="C396" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="n">
-        <v>5</v>
-      </c>
-      <c r="B397" t="inlineStr">
+      <c r="A397" t="inlineStr">
         <is>
           <t>381940</t>
         </is>
       </c>
+      <c r="B397" t="n">
+        <v>5</v>
+      </c>
       <c r="C397" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="n">
-        <v>5</v>
-      </c>
-      <c r="B398" t="inlineStr">
+      <c r="A398" t="inlineStr">
         <is>
           <t>387296</t>
         </is>
       </c>
+      <c r="B398" t="n">
+        <v>5</v>
+      </c>
       <c r="C398" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="n">
-        <v>5</v>
-      </c>
-      <c r="B399" t="inlineStr">
+      <c r="A399" t="inlineStr">
         <is>
           <t>392874</t>
         </is>
       </c>
+      <c r="B399" t="n">
+        <v>5</v>
+      </c>
       <c r="C399" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="n">
-        <v>5</v>
-      </c>
-      <c r="B400" t="inlineStr">
+      <c r="A400" t="inlineStr">
         <is>
           <t>401706</t>
         </is>
       </c>
+      <c r="B400" t="n">
+        <v>5</v>
+      </c>
       <c r="C400" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="n">
-        <v>5</v>
-      </c>
-      <c r="B401" t="inlineStr">
+      <c r="A401" t="inlineStr">
         <is>
           <t>405184</t>
         </is>
       </c>
+      <c r="B401" t="n">
+        <v>5</v>
+      </c>
       <c r="C401" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="n">
-        <v>5</v>
-      </c>
-      <c r="B402" t="inlineStr">
+      <c r="A402" t="inlineStr">
         <is>
           <t>410611</t>
         </is>
       </c>
+      <c r="B402" t="n">
+        <v>5</v>
+      </c>
       <c r="C402" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="n">
-        <v>5</v>
-      </c>
-      <c r="B403" t="inlineStr">
+      <c r="A403" t="inlineStr">
         <is>
           <t>429696</t>
         </is>
+      </c>
+      <c r="B403" t="n">
+        <v>5</v>
       </c>
       <c r="C403" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="n">
-        <v>5</v>
-      </c>
-      <c r="B404" t="inlineStr">
+      <c r="A404" t="inlineStr">
         <is>
           <t>429779</t>
         </is>
       </c>
+      <c r="B404" t="n">
+        <v>5</v>
+      </c>
       <c r="C404" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="n">
-        <v>5</v>
-      </c>
-      <c r="B405" t="inlineStr">
+      <c r="A405" t="inlineStr">
         <is>
           <t>433967</t>
         </is>
       </c>
+      <c r="B405" t="n">
+        <v>5</v>
+      </c>
       <c r="C405" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="n">
-        <v>5</v>
-      </c>
-      <c r="B406" t="inlineStr">
+      <c r="A406" t="inlineStr">
         <is>
           <t>434827</t>
         </is>
       </c>
+      <c r="B406" t="n">
+        <v>5</v>
+      </c>
       <c r="C406" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="n">
-        <v>5</v>
-      </c>
-      <c r="B407" t="inlineStr">
+      <c r="A407" t="inlineStr">
         <is>
           <t>444965</t>
         </is>
       </c>
+      <c r="B407" t="n">
+        <v>5</v>
+      </c>
       <c r="C407" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="n">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>450765</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
         <v>4</v>
       </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>450765</t>
-        </is>
-      </c>
       <c r="C408" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="n">
-        <v>5</v>
-      </c>
-      <c r="B409" t="inlineStr">
+      <c r="A409" t="inlineStr">
         <is>
           <t>469358</t>
         </is>
+      </c>
+      <c r="B409" t="n">
+        <v>5</v>
       </c>
       <c r="C409" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="n">
-        <v>5</v>
-      </c>
-      <c r="B410" t="inlineStr">
+      <c r="A410" t="inlineStr">
         <is>
           <t>470219</t>
         </is>
       </c>
+      <c r="B410" t="n">
+        <v>5</v>
+      </c>
       <c r="C410" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="n">
-        <v>5</v>
-      </c>
-      <c r="B411" t="inlineStr">
+      <c r="A411" t="inlineStr">
         <is>
           <t>476204</t>
         </is>
       </c>
+      <c r="B411" t="n">
+        <v>5</v>
+      </c>
       <c r="C411" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="n">
-        <v>5</v>
-      </c>
-      <c r="B412" t="inlineStr">
+      <c r="A412" t="inlineStr">
         <is>
           <t>476291</t>
         </is>
       </c>
+      <c r="B412" t="n">
+        <v>5</v>
+      </c>
       <c r="C412" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="n">
-        <v>5</v>
-      </c>
-      <c r="B413" t="inlineStr">
+      <c r="A413" t="inlineStr">
         <is>
           <t>476412</t>
         </is>
       </c>
+      <c r="B413" t="n">
+        <v>5</v>
+      </c>
       <c r="C413" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="n">
-        <v>5</v>
-      </c>
-      <c r="B414" t="inlineStr">
+      <c r="A414" t="inlineStr">
         <is>
           <t>476790</t>
         </is>
       </c>
+      <c r="B414" t="n">
+        <v>5</v>
+      </c>
       <c r="C414" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="n">
-        <v>5</v>
-      </c>
-      <c r="B415" t="inlineStr">
+      <c r="A415" t="inlineStr">
         <is>
           <t>481237</t>
         </is>
       </c>
+      <c r="B415" t="n">
+        <v>5</v>
+      </c>
       <c r="C415" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="n">
-        <v>5</v>
-      </c>
-      <c r="B416" t="inlineStr">
+      <c r="A416" t="inlineStr">
         <is>
           <t>488356</t>
         </is>
       </c>
+      <c r="B416" t="n">
+        <v>5</v>
+      </c>
       <c r="C416" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="n">
-        <v>5</v>
-      </c>
-      <c r="B417" t="inlineStr">
+      <c r="A417" t="inlineStr">
         <is>
           <t>493659</t>
         </is>
       </c>
+      <c r="B417" t="n">
+        <v>5</v>
+      </c>
       <c r="C417" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="n">
-        <v>5</v>
-      </c>
-      <c r="B418" t="inlineStr">
+      <c r="A418" t="inlineStr">
         <is>
           <t>494484</t>
         </is>
       </c>
+      <c r="B418" t="n">
+        <v>5</v>
+      </c>
       <c r="C418" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="n">
-        <v>5</v>
-      </c>
-      <c r="B419" t="inlineStr">
+      <c r="A419" t="inlineStr">
         <is>
           <t>499537</t>
         </is>
       </c>
+      <c r="B419" t="n">
+        <v>5</v>
+      </c>
       <c r="C419" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="n">
-        <v>5</v>
-      </c>
-      <c r="B420" t="inlineStr">
+      <c r="A420" t="inlineStr">
         <is>
           <t>505206</t>
         </is>
       </c>
+      <c r="B420" t="n">
+        <v>5</v>
+      </c>
       <c r="C420" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="n">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>514266</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
         <v>4</v>
       </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>514266</t>
-        </is>
-      </c>
       <c r="C421" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="422">
-      <c r="A422" t="n">
-        <v>5</v>
-      </c>
-      <c r="B422" t="inlineStr">
+      <c r="A422" t="inlineStr">
         <is>
           <t>522124</t>
         </is>
       </c>
+      <c r="B422" t="n">
+        <v>5</v>
+      </c>
       <c r="C422" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="n">
-        <v>5</v>
-      </c>
-      <c r="B423" t="inlineStr">
+      <c r="A423" t="inlineStr">
         <is>
           <t>543201</t>
         </is>
       </c>
+      <c r="B423" t="n">
+        <v>5</v>
+      </c>
       <c r="C423" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="n">
-        <v>5</v>
-      </c>
-      <c r="B424" t="inlineStr">
+      <c r="A424" t="inlineStr">
         <is>
           <t>545355</t>
         </is>
       </c>
+      <c r="B424" t="n">
+        <v>5</v>
+      </c>
       <c r="C424" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="n">
-        <v>5</v>
-      </c>
-      <c r="B425" t="inlineStr">
+      <c r="A425" t="inlineStr">
         <is>
           <t>546332</t>
         </is>
       </c>
+      <c r="B425" t="n">
+        <v>5</v>
+      </c>
       <c r="C425" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="n">
-        <v>5</v>
-      </c>
-      <c r="B426" t="inlineStr">
+      <c r="A426" t="inlineStr">
         <is>
           <t>555000</t>
         </is>
       </c>
+      <c r="B426" t="n">
+        <v>5</v>
+      </c>
       <c r="C426" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="n">
-        <v>5</v>
-      </c>
-      <c r="B427" t="inlineStr">
+      <c r="A427" t="inlineStr">
         <is>
           <t>567866</t>
         </is>
       </c>
+      <c r="B427" t="n">
+        <v>5</v>
+      </c>
       <c r="C427" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="n">
-        <v>5</v>
-      </c>
-      <c r="B428" t="inlineStr">
+      <c r="A428" t="inlineStr">
         <is>
           <t>571200</t>
         </is>
       </c>
+      <c r="B428" t="n">
+        <v>5</v>
+      </c>
       <c r="C428" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="n">
-        <v>5</v>
-      </c>
-      <c r="B429" t="inlineStr">
+      <c r="A429" t="inlineStr">
         <is>
           <t>576622</t>
         </is>
       </c>
+      <c r="B429" t="n">
+        <v>5</v>
+      </c>
       <c r="C429" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="n">
-        <v>5</v>
-      </c>
-      <c r="B430" t="inlineStr">
+      <c r="A430" t="inlineStr">
         <is>
           <t>582576</t>
         </is>
       </c>
+      <c r="B430" t="n">
+        <v>5</v>
+      </c>
       <c r="C430" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="n">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>587137</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
         <v>4</v>
       </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>587137</t>
-        </is>
-      </c>
       <c r="C431" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="n">
-        <v>5</v>
-      </c>
-      <c r="B432" t="inlineStr">
+      <c r="A432" t="inlineStr">
         <is>
           <t>596731</t>
         </is>
       </c>
+      <c r="B432" t="n">
+        <v>5</v>
+      </c>
       <c r="C432" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="n">
-        <v>5</v>
-      </c>
-      <c r="B433" t="inlineStr">
+      <c r="A433" t="inlineStr">
         <is>
           <t>601537</t>
         </is>
       </c>
+      <c r="B433" t="n">
+        <v>5</v>
+      </c>
       <c r="C433" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="n">
-        <v>5</v>
-      </c>
-      <c r="B434" t="inlineStr">
+      <c r="A434" t="inlineStr">
         <is>
           <t>610252</t>
         </is>
       </c>
+      <c r="B434" t="n">
+        <v>5</v>
+      </c>
       <c r="C434" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="n">
-        <v>5</v>
-      </c>
-      <c r="B435" t="inlineStr">
+      <c r="A435" t="inlineStr">
         <is>
           <t>610619</t>
         </is>
       </c>
+      <c r="B435" t="n">
+        <v>5</v>
+      </c>
       <c r="C435" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="n">
-        <v>5</v>
-      </c>
-      <c r="B436" t="inlineStr">
+      <c r="A436" t="inlineStr">
         <is>
           <t>621809</t>
         </is>
       </c>
+      <c r="B436" t="n">
+        <v>5</v>
+      </c>
       <c r="C436" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="n">
-        <v>5</v>
-      </c>
-      <c r="B437" t="inlineStr">
+      <c r="A437" t="inlineStr">
         <is>
           <t>627346</t>
         </is>
       </c>
+      <c r="B437" t="n">
+        <v>5</v>
+      </c>
       <c r="C437" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="n">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>627542</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
         <v>3</v>
       </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>627542</t>
-        </is>
-      </c>
       <c r="C438" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="n">
-        <v>5</v>
-      </c>
-      <c r="B439" t="inlineStr">
+      <c r="A439" t="inlineStr">
         <is>
           <t>650672</t>
         </is>
       </c>
+      <c r="B439" t="n">
+        <v>5</v>
+      </c>
       <c r="C439" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="n">
-        <v>5</v>
-      </c>
-      <c r="B440" t="inlineStr">
+      <c r="A440" t="inlineStr">
         <is>
           <t>650964</t>
         </is>
       </c>
+      <c r="B440" t="n">
+        <v>5</v>
+      </c>
       <c r="C440" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="n">
-        <v>5</v>
-      </c>
-      <c r="B441" t="inlineStr">
+      <c r="A441" t="inlineStr">
         <is>
           <t>654268</t>
         </is>
       </c>
+      <c r="B441" t="n">
+        <v>5</v>
+      </c>
       <c r="C441" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="n">
-        <v>5</v>
-      </c>
-      <c r="B442" t="inlineStr">
+      <c r="A442" t="inlineStr">
         <is>
           <t>656071</t>
         </is>
       </c>
+      <c r="B442" t="n">
+        <v>5</v>
+      </c>
       <c r="C442" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="n">
-        <v>5</v>
-      </c>
-      <c r="B443" t="inlineStr">
+      <c r="A443" t="inlineStr">
         <is>
           <t>667310</t>
         </is>
       </c>
+      <c r="B443" t="n">
+        <v>5</v>
+      </c>
       <c r="C443" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="n">
-        <v>5</v>
-      </c>
-      <c r="B444" t="inlineStr">
+      <c r="A444" t="inlineStr">
         <is>
           <t>667926</t>
         </is>
       </c>
+      <c r="B444" t="n">
+        <v>5</v>
+      </c>
       <c r="C444" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="n">
-        <v>5</v>
-      </c>
-      <c r="B445" t="inlineStr">
+      <c r="A445" t="inlineStr">
         <is>
           <t>678722</t>
         </is>
       </c>
+      <c r="B445" t="n">
+        <v>5</v>
+      </c>
       <c r="C445" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="n">
-        <v>5</v>
-      </c>
-      <c r="B446" t="inlineStr">
+      <c r="A446" t="inlineStr">
         <is>
           <t>681069</t>
         </is>
       </c>
+      <c r="B446" t="n">
+        <v>5</v>
+      </c>
       <c r="C446" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="n">
-        <v>5</v>
-      </c>
-      <c r="B447" t="inlineStr">
+      <c r="A447" t="inlineStr">
         <is>
           <t>681084</t>
         </is>
       </c>
+      <c r="B447" t="n">
+        <v>5</v>
+      </c>
       <c r="C447" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="n">
-        <v>5</v>
-      </c>
-      <c r="B448" t="inlineStr">
+      <c r="A448" t="inlineStr">
         <is>
           <t>684208</t>
         </is>
       </c>
+      <c r="B448" t="n">
+        <v>5</v>
+      </c>
       <c r="C448" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="n">
-        <v>5</v>
-      </c>
-      <c r="B449" t="inlineStr">
+      <c r="A449" t="inlineStr">
         <is>
           <t>689592</t>
         </is>
       </c>
+      <c r="B449" t="n">
+        <v>5</v>
+      </c>
       <c r="C449" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="n">
-        <v>5</v>
-      </c>
-      <c r="B450" t="inlineStr">
+      <c r="A450" t="inlineStr">
         <is>
           <t>693946</t>
         </is>
       </c>
+      <c r="B450" t="n">
+        <v>5</v>
+      </c>
       <c r="C450" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="n">
-        <v>5</v>
-      </c>
-      <c r="B451" t="inlineStr">
+      <c r="A451" t="inlineStr">
         <is>
           <t>696323</t>
         </is>
       </c>
+      <c r="B451" t="n">
+        <v>5</v>
+      </c>
       <c r="C451" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="n">
-        <v>5</v>
-      </c>
-      <c r="B452" t="inlineStr">
+      <c r="A452" t="inlineStr">
         <is>
           <t>702555</t>
         </is>
       </c>
+      <c r="B452" t="n">
+        <v>5</v>
+      </c>
       <c r="C452" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
-        <v>5</v>
-      </c>
-      <c r="B453" t="inlineStr">
+      <c r="A453" t="inlineStr">
         <is>
           <t>702561</t>
         </is>
       </c>
+      <c r="B453" t="n">
+        <v>5</v>
+      </c>
       <c r="C453" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
-        <v>5</v>
-      </c>
-      <c r="B454" t="inlineStr">
+      <c r="A454" t="inlineStr">
         <is>
           <t>702651</t>
         </is>
       </c>
+      <c r="B454" t="n">
+        <v>5</v>
+      </c>
       <c r="C454" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
-        <v>5</v>
-      </c>
-      <c r="B455" t="inlineStr">
+      <c r="A455" t="inlineStr">
         <is>
           <t>703910</t>
         </is>
       </c>
+      <c r="B455" t="n">
+        <v>5</v>
+      </c>
       <c r="C455" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
-        <v>5</v>
-      </c>
-      <c r="B456" t="inlineStr">
+      <c r="A456" t="inlineStr">
         <is>
           <t>706707</t>
         </is>
       </c>
+      <c r="B456" t="n">
+        <v>5</v>
+      </c>
       <c r="C456" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
-        <v>5</v>
-      </c>
-      <c r="B457" t="inlineStr">
+      <c r="A457" t="inlineStr">
         <is>
           <t>711875</t>
         </is>
       </c>
+      <c r="B457" t="n">
+        <v>5</v>
+      </c>
       <c r="C457" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
-        <v>5</v>
-      </c>
-      <c r="B458" t="inlineStr">
+      <c r="A458" t="inlineStr">
         <is>
           <t>711999</t>
         </is>
       </c>
+      <c r="B458" t="n">
+        <v>5</v>
+      </c>
       <c r="C458" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>718224</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
         <v>3</v>
       </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>718224</t>
-        </is>
-      </c>
       <c r="C459" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="n">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>719529</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
         <v>4</v>
       </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>719529</t>
-        </is>
-      </c>
       <c r="C460" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="n">
-        <v>5</v>
-      </c>
-      <c r="B461" t="inlineStr">
+      <c r="A461" t="inlineStr">
         <is>
           <t>720158</t>
         </is>
       </c>
+      <c r="B461" t="n">
+        <v>5</v>
+      </c>
       <c r="C461" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="n">
-        <v>5</v>
-      </c>
-      <c r="B462" t="inlineStr">
+      <c r="A462" t="inlineStr">
         <is>
           <t>727863</t>
         </is>
       </c>
+      <c r="B462" t="n">
+        <v>5</v>
+      </c>
       <c r="C462" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="n">
-        <v>5</v>
-      </c>
-      <c r="B463" t="inlineStr">
+      <c r="A463" t="inlineStr">
         <is>
           <t>730583</t>
         </is>
       </c>
+      <c r="B463" t="n">
+        <v>5</v>
+      </c>
       <c r="C463" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="n">
-        <v>5</v>
-      </c>
-      <c r="B464" t="inlineStr">
+      <c r="A464" t="inlineStr">
         <is>
           <t>731449</t>
         </is>
       </c>
+      <c r="B464" t="n">
+        <v>5</v>
+      </c>
       <c r="C464" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="n">
-        <v>5</v>
-      </c>
-      <c r="B465" t="inlineStr">
+      <c r="A465" t="inlineStr">
         <is>
           <t>737316</t>
         </is>
       </c>
+      <c r="B465" t="n">
+        <v>5</v>
+      </c>
       <c r="C465" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="n">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>737973</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
         <v>4</v>
       </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>737973</t>
-        </is>
-      </c>
       <c r="C466" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="n">
-        <v>5</v>
-      </c>
-      <c r="B467" t="inlineStr">
+      <c r="A467" t="inlineStr">
         <is>
           <t>739611</t>
         </is>
       </c>
+      <c r="B467" t="n">
+        <v>5</v>
+      </c>
       <c r="C467" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="n">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>745696</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
         <v>4</v>
       </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>745696</t>
-        </is>
-      </c>
       <c r="C468" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="n">
-        <v>5</v>
-      </c>
-      <c r="B469" t="inlineStr">
+      <c r="A469" t="inlineStr">
         <is>
           <t>748820</t>
         </is>
       </c>
+      <c r="B469" t="n">
+        <v>5</v>
+      </c>
       <c r="C469" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="n">
-        <v>5</v>
-      </c>
-      <c r="B470" t="inlineStr">
+      <c r="A470" t="inlineStr">
         <is>
           <t>752683</t>
         </is>
       </c>
+      <c r="B470" t="n">
+        <v>5</v>
+      </c>
       <c r="C470" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="n">
-        <v>5</v>
-      </c>
-      <c r="B471" t="inlineStr">
+      <c r="A471" t="inlineStr">
         <is>
           <t>758994</t>
         </is>
       </c>
+      <c r="B471" t="n">
+        <v>5</v>
+      </c>
       <c r="C471" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="n">
-        <v>5</v>
-      </c>
-      <c r="B472" t="inlineStr">
+      <c r="A472" t="inlineStr">
         <is>
           <t>764151</t>
         </is>
+      </c>
+      <c r="B472" t="n">
+        <v>5</v>
       </c>
       <c r="C472" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="n">
-        <v>5</v>
-      </c>
-      <c r="B473" t="inlineStr">
+      <c r="A473" t="inlineStr">
         <is>
           <t>764287</t>
         </is>
       </c>
+      <c r="B473" t="n">
+        <v>5</v>
+      </c>
       <c r="C473" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="n">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>769676</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
         <v>4</v>
       </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>769676</t>
-        </is>
-      </c>
       <c r="C474" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="n">
-        <v>5</v>
-      </c>
-      <c r="B475" t="inlineStr">
+      <c r="A475" t="inlineStr">
         <is>
           <t>770263</t>
         </is>
       </c>
+      <c r="B475" t="n">
+        <v>5</v>
+      </c>
       <c r="C475" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="n">
-        <v>5</v>
-      </c>
-      <c r="B476" t="inlineStr">
+      <c r="A476" t="inlineStr">
         <is>
           <t>770318</t>
         </is>
       </c>
+      <c r="B476" t="n">
+        <v>5</v>
+      </c>
       <c r="C476" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="n">
-        <v>5</v>
-      </c>
-      <c r="B477" t="inlineStr">
+      <c r="A477" t="inlineStr">
         <is>
           <t>771041</t>
         </is>
+      </c>
+      <c r="B477" t="n">
+        <v>5</v>
       </c>
       <c r="C477" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="n">
-        <v>5</v>
-      </c>
-      <c r="B478" t="inlineStr">
+      <c r="A478" t="inlineStr">
         <is>
           <t>779494</t>
         </is>
       </c>
+      <c r="B478" t="n">
+        <v>5</v>
+      </c>
       <c r="C478" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="n">
-        <v>5</v>
-      </c>
-      <c r="B479" t="inlineStr">
+      <c r="A479" t="inlineStr">
         <is>
           <t>790460</t>
         </is>
       </c>
+      <c r="B479" t="n">
+        <v>5</v>
+      </c>
       <c r="C479" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="n">
-        <v>5</v>
-      </c>
-      <c r="B480" t="inlineStr">
+      <c r="A480" t="inlineStr">
         <is>
           <t>792251</t>
         </is>
       </c>
+      <c r="B480" t="n">
+        <v>5</v>
+      </c>
       <c r="C480" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="n">
-        <v>5</v>
-      </c>
-      <c r="B481" t="inlineStr">
+      <c r="A481" t="inlineStr">
         <is>
           <t>793046</t>
         </is>
       </c>
+      <c r="B481" t="n">
+        <v>5</v>
+      </c>
       <c r="C481" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="n">
-        <v>5</v>
-      </c>
-      <c r="B482" t="inlineStr">
+      <c r="A482" t="inlineStr">
         <is>
           <t>794783</t>
         </is>
       </c>
+      <c r="B482" t="n">
+        <v>5</v>
+      </c>
       <c r="C482" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="n">
-        <v>5</v>
-      </c>
-      <c r="B483" t="inlineStr">
+      <c r="A483" t="inlineStr">
         <is>
           <t>798187</t>
         </is>
       </c>
+      <c r="B483" t="n">
+        <v>5</v>
+      </c>
       <c r="C483" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="n">
-        <v>5</v>
-      </c>
-      <c r="B484" t="inlineStr">
+      <c r="A484" t="inlineStr">
         <is>
           <t>799248</t>
         </is>
       </c>
+      <c r="B484" t="n">
+        <v>5</v>
+      </c>
       <c r="C484" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="n">
-        <v>5</v>
-      </c>
-      <c r="B485" t="inlineStr">
+      <c r="A485" t="inlineStr">
         <is>
           <t>801037</t>
         </is>
       </c>
+      <c r="B485" t="n">
+        <v>5</v>
+      </c>
       <c r="C485" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="n">
-        <v>5</v>
-      </c>
-      <c r="B486" t="inlineStr">
+      <c r="A486" t="inlineStr">
         <is>
           <t>803770</t>
         </is>
       </c>
+      <c r="B486" t="n">
+        <v>5</v>
+      </c>
       <c r="C486" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="n">
-        <v>5</v>
-      </c>
-      <c r="B487" t="inlineStr">
+      <c r="A487" t="inlineStr">
         <is>
           <t>810952</t>
         </is>
       </c>
+      <c r="B487" t="n">
+        <v>5</v>
+      </c>
       <c r="C487" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="n">
-        <v>5</v>
-      </c>
-      <c r="B488" t="inlineStr">
+      <c r="A488" t="inlineStr">
         <is>
           <t>815784</t>
         </is>
       </c>
+      <c r="B488" t="n">
+        <v>5</v>
+      </c>
       <c r="C488" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="n">
-        <v>5</v>
-      </c>
-      <c r="B489" t="inlineStr">
+      <c r="A489" t="inlineStr">
         <is>
           <t>816721</t>
         </is>
       </c>
+      <c r="B489" t="n">
+        <v>5</v>
+      </c>
       <c r="C489" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
-        <v>5</v>
-      </c>
-      <c r="B490" t="inlineStr">
+      <c r="A490" t="inlineStr">
         <is>
           <t>821096</t>
         </is>
+      </c>
+      <c r="B490" t="n">
+        <v>5</v>
       </c>
       <c r="C490" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
-        <v>5</v>
-      </c>
-      <c r="B491" t="inlineStr">
+      <c r="A491" t="inlineStr">
         <is>
           <t>826183</t>
         </is>
       </c>
+      <c r="B491" t="n">
+        <v>5</v>
+      </c>
       <c r="C491" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
-        <v>5</v>
-      </c>
-      <c r="B492" t="inlineStr">
+      <c r="A492" t="inlineStr">
         <is>
           <t>827357</t>
         </is>
       </c>
+      <c r="B492" t="n">
+        <v>5</v>
+      </c>
       <c r="C492" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>831015</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
         <v>4</v>
       </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>831015</t>
-        </is>
-      </c>
       <c r="C493" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
-        <v>5</v>
-      </c>
-      <c r="B494" t="inlineStr">
+      <c r="A494" t="inlineStr">
         <is>
           <t>834047</t>
         </is>
       </c>
+      <c r="B494" t="n">
+        <v>5</v>
+      </c>
       <c r="C494" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
-        <v>5</v>
-      </c>
-      <c r="B495" t="inlineStr">
+      <c r="A495" t="inlineStr">
         <is>
           <t>835863</t>
         </is>
       </c>
+      <c r="B495" t="n">
+        <v>5</v>
+      </c>
       <c r="C495" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
-        <v>5</v>
-      </c>
-      <c r="B496" t="inlineStr">
+      <c r="A496" t="inlineStr">
         <is>
           <t>838653</t>
         </is>
       </c>
+      <c r="B496" t="n">
+        <v>5</v>
+      </c>
       <c r="C496" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="497">
-      <c r="A497" t="n">
-        <v>5</v>
-      </c>
-      <c r="B497" t="inlineStr">
+      <c r="A497" t="inlineStr">
         <is>
           <t>840003</t>
         </is>
       </c>
+      <c r="B497" t="n">
+        <v>5</v>
+      </c>
       <c r="C497" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="n">
-        <v>5</v>
-      </c>
-      <c r="B498" t="inlineStr">
+      <c r="A498" t="inlineStr">
         <is>
           <t>840623</t>
         </is>
       </c>
+      <c r="B498" t="n">
+        <v>5</v>
+      </c>
       <c r="C498" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="n">
-        <v>5</v>
-      </c>
-      <c r="B499" t="inlineStr">
+      <c r="A499" t="inlineStr">
         <is>
           <t>847259</t>
         </is>
       </c>
+      <c r="B499" t="n">
+        <v>5</v>
+      </c>
       <c r="C499" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="n">
-        <v>5</v>
-      </c>
-      <c r="B500" t="inlineStr">
+      <c r="A500" t="inlineStr">
         <is>
           <t>849891</t>
         </is>
       </c>
+      <c r="B500" t="n">
+        <v>5</v>
+      </c>
       <c r="C500" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="n">
-        <v>5</v>
-      </c>
-      <c r="B501" t="inlineStr">
+      <c r="A501" t="inlineStr">
         <is>
           <t>852225</t>
         </is>
       </c>
+      <c r="B501" t="n">
+        <v>5</v>
+      </c>
       <c r="C501" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="n">
-        <v>5</v>
-      </c>
-      <c r="B502" t="inlineStr">
+      <c r="A502" t="inlineStr">
         <is>
           <t>852646</t>
         </is>
       </c>
+      <c r="B502" t="n">
+        <v>5</v>
+      </c>
       <c r="C502" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="n">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>855312</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
         <v>3</v>
       </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>855312</t>
-        </is>
-      </c>
       <c r="C503" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="n">
-        <v>5</v>
-      </c>
-      <c r="B504" t="inlineStr">
+      <c r="A504" t="inlineStr">
         <is>
           <t>855941</t>
         </is>
       </c>
+      <c r="B504" t="n">
+        <v>5</v>
+      </c>
       <c r="C504" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="n">
-        <v>5</v>
-      </c>
-      <c r="B505" t="inlineStr">
+      <c r="A505" t="inlineStr">
         <is>
           <t>856677</t>
         </is>
       </c>
+      <c r="B505" t="n">
+        <v>5</v>
+      </c>
       <c r="C505" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="n">
-        <v>5</v>
-      </c>
-      <c r="B506" t="inlineStr">
+      <c r="A506" t="inlineStr">
         <is>
           <t>860393</t>
         </is>
       </c>
+      <c r="B506" t="n">
+        <v>5</v>
+      </c>
       <c r="C506" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="n">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>860698</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
         <v>4</v>
       </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>860698</t>
-        </is>
-      </c>
       <c r="C507" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="508">
-      <c r="A508" t="n">
-        <v>5</v>
-      </c>
-      <c r="B508" t="inlineStr">
+      <c r="A508" t="inlineStr">
         <is>
           <t>862755</t>
         </is>
       </c>
+      <c r="B508" t="n">
+        <v>5</v>
+      </c>
       <c r="C508" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="509">
-      <c r="A509" t="n">
-        <v>5</v>
-      </c>
-      <c r="B509" t="inlineStr">
+      <c r="A509" t="inlineStr">
         <is>
           <t>868202</t>
         </is>
       </c>
+      <c r="B509" t="n">
+        <v>5</v>
+      </c>
       <c r="C509" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="n">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>873366</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
         <v>4</v>
       </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>873366</t>
-        </is>
-      </c>
       <c r="C510" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="n">
-        <v>5</v>
-      </c>
-      <c r="B511" t="inlineStr">
+      <c r="A511" t="inlineStr">
         <is>
           <t>873449</t>
         </is>
       </c>
+      <c r="B511" t="n">
+        <v>5</v>
+      </c>
       <c r="C511" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="n">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>876141</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
         <v>2</v>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>876141</t>
-        </is>
       </c>
       <c r="C512" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="n">
-        <v>5</v>
-      </c>
-      <c r="B513" t="inlineStr">
+      <c r="A513" t="inlineStr">
         <is>
           <t>876406</t>
         </is>
       </c>
+      <c r="B513" t="n">
+        <v>5</v>
+      </c>
       <c r="C513" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="n">
-        <v>5</v>
-      </c>
-      <c r="B514" t="inlineStr">
+      <c r="A514" t="inlineStr">
         <is>
           <t>878930</t>
         </is>
       </c>
+      <c r="B514" t="n">
+        <v>5</v>
+      </c>
       <c r="C514" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="n">
-        <v>5</v>
-      </c>
-      <c r="B515" t="inlineStr">
+      <c r="A515" t="inlineStr">
         <is>
           <t>884073</t>
         </is>
       </c>
+      <c r="B515" t="n">
+        <v>5</v>
+      </c>
       <c r="C515" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="516">
-      <c r="A516" t="n">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>886259</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
         <v>3</v>
       </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>886259</t>
-        </is>
-      </c>
       <c r="C516" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="517">
-      <c r="A517" t="n">
-        <v>5</v>
-      </c>
-      <c r="B517" t="inlineStr">
+      <c r="A517" t="inlineStr">
         <is>
           <t>886944</t>
         </is>
+      </c>
+      <c r="B517" t="n">
+        <v>5</v>
       </c>
       <c r="C517" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="518">
-      <c r="A518" t="n">
-        <v>5</v>
-      </c>
-      <c r="B518" t="inlineStr">
+      <c r="A518" t="inlineStr">
         <is>
           <t>889980</t>
         </is>
       </c>
+      <c r="B518" t="n">
+        <v>5</v>
+      </c>
       <c r="C518" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="519">
-      <c r="A519" t="n">
-        <v>5</v>
-      </c>
-      <c r="B519" t="inlineStr">
+      <c r="A519" t="inlineStr">
         <is>
           <t>892301</t>
         </is>
       </c>
+      <c r="B519" t="n">
+        <v>5</v>
+      </c>
       <c r="C519" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="520">
-      <c r="A520" t="n">
-        <v>5</v>
-      </c>
-      <c r="B520" t="inlineStr">
+      <c r="A520" t="inlineStr">
         <is>
           <t>900265</t>
         </is>
       </c>
+      <c r="B520" t="n">
+        <v>5</v>
+      </c>
       <c r="C520" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="521">
-      <c r="A521" t="n">
-        <v>5</v>
-      </c>
-      <c r="B521" t="inlineStr">
+      <c r="A521" t="inlineStr">
         <is>
           <t>905169</t>
         </is>
       </c>
+      <c r="B521" t="n">
+        <v>5</v>
+      </c>
       <c r="C521" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="522">
-      <c r="A522" t="n">
-        <v>5</v>
-      </c>
-      <c r="B522" t="inlineStr">
+      <c r="A522" t="inlineStr">
         <is>
           <t>907822</t>
         </is>
       </c>
+      <c r="B522" t="n">
+        <v>5</v>
+      </c>
       <c r="C522" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="523">
-      <c r="A523" t="n">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>910582</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
         <v>4</v>
       </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>910582</t>
-        </is>
-      </c>
       <c r="C523" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="n">
-        <v>5</v>
-      </c>
-      <c r="B524" t="inlineStr">
+      <c r="A524" t="inlineStr">
         <is>
           <t>914884</t>
         </is>
       </c>
+      <c r="B524" t="n">
+        <v>5</v>
+      </c>
       <c r="C524" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="n">
-        <v>5</v>
-      </c>
-      <c r="B525" t="inlineStr">
+      <c r="A525" t="inlineStr">
         <is>
           <t>915286</t>
         </is>
       </c>
+      <c r="B525" t="n">
+        <v>5</v>
+      </c>
       <c r="C525" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="526">
-      <c r="A526" t="n">
-        <v>5</v>
-      </c>
-      <c r="B526" t="inlineStr">
+      <c r="A526" t="inlineStr">
         <is>
           <t>915569</t>
         </is>
       </c>
+      <c r="B526" t="n">
+        <v>5</v>
+      </c>
       <c r="C526" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="527">
-      <c r="A527" t="n">
-        <v>5</v>
-      </c>
-      <c r="B527" t="inlineStr">
+      <c r="A527" t="inlineStr">
         <is>
           <t>916198</t>
         </is>
       </c>
+      <c r="B527" t="n">
+        <v>5</v>
+      </c>
       <c r="C527" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="528">
-      <c r="A528" t="n">
-        <v>5</v>
-      </c>
-      <c r="B528" t="inlineStr">
+      <c r="A528" t="inlineStr">
         <is>
           <t>917605</t>
         </is>
       </c>
+      <c r="B528" t="n">
+        <v>5</v>
+      </c>
       <c r="C528" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="529">
-      <c r="A529" t="n">
-        <v>5</v>
-      </c>
-      <c r="B529" t="inlineStr">
+      <c r="A529" t="inlineStr">
         <is>
           <t>918199</t>
         </is>
       </c>
+      <c r="B529" t="n">
+        <v>5</v>
+      </c>
       <c r="C529" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="530">
-      <c r="A530" t="n">
-        <v>5</v>
-      </c>
-      <c r="B530" t="inlineStr">
+      <c r="A530" t="inlineStr">
         <is>
           <t>923108</t>
         </is>
       </c>
+      <c r="B530" t="n">
+        <v>5</v>
+      </c>
       <c r="C530" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="n">
-        <v>5</v>
-      </c>
-      <c r="B531" t="inlineStr">
+      <c r="A531" t="inlineStr">
         <is>
           <t>923932</t>
         </is>
       </c>
+      <c r="B531" t="n">
+        <v>5</v>
+      </c>
       <c r="C531" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="532">
-      <c r="A532" t="n">
-        <v>5</v>
-      </c>
-      <c r="B532" t="inlineStr">
+      <c r="A532" t="inlineStr">
         <is>
           <t>927517</t>
         </is>
       </c>
+      <c r="B532" t="n">
+        <v>5</v>
+      </c>
       <c r="C532" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="533">
-      <c r="A533" t="n">
-        <v>5</v>
-      </c>
-      <c r="B533" t="inlineStr">
+      <c r="A533" t="inlineStr">
         <is>
           <t>930050</t>
         </is>
       </c>
+      <c r="B533" t="n">
+        <v>5</v>
+      </c>
       <c r="C533" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="534">
-      <c r="A534" t="n">
-        <v>5</v>
-      </c>
-      <c r="B534" t="inlineStr">
+      <c r="A534" t="inlineStr">
         <is>
           <t>930067</t>
         </is>
       </c>
+      <c r="B534" t="n">
+        <v>5</v>
+      </c>
       <c r="C534" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="535">
-      <c r="A535" t="n">
-        <v>5</v>
-      </c>
-      <c r="B535" t="inlineStr">
+      <c r="A535" t="inlineStr">
         <is>
           <t>930611</t>
         </is>
       </c>
+      <c r="B535" t="n">
+        <v>5</v>
+      </c>
       <c r="C535" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="536">
-      <c r="A536" t="n">
-        <v>5</v>
-      </c>
-      <c r="B536" t="inlineStr">
+      <c r="A536" t="inlineStr">
         <is>
           <t>931741</t>
         </is>
       </c>
+      <c r="B536" t="n">
+        <v>5</v>
+      </c>
       <c r="C536" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="n">
-        <v>5</v>
-      </c>
-      <c r="B537" t="inlineStr">
+      <c r="A537" t="inlineStr">
         <is>
           <t>931744</t>
         </is>
       </c>
+      <c r="B537" t="n">
+        <v>5</v>
+      </c>
       <c r="C537" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="538">
-      <c r="A538" t="n">
-        <v>5</v>
-      </c>
-      <c r="B538" t="inlineStr">
+      <c r="A538" t="inlineStr">
         <is>
           <t>937390</t>
         </is>
       </c>
+      <c r="B538" t="n">
+        <v>5</v>
+      </c>
       <c r="C538" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="539">
-      <c r="A539" t="n">
-        <v>5</v>
-      </c>
-      <c r="B539" t="inlineStr">
+      <c r="A539" t="inlineStr">
         <is>
           <t>937471</t>
         </is>
       </c>
+      <c r="B539" t="n">
+        <v>5</v>
+      </c>
       <c r="C539" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="540">
-      <c r="A540" t="n">
-        <v>5</v>
-      </c>
-      <c r="B540" t="inlineStr">
+      <c r="A540" t="inlineStr">
         <is>
           <t>937990</t>
         </is>
       </c>
+      <c r="B540" t="n">
+        <v>5</v>
+      </c>
       <c r="C540" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="541">
-      <c r="A541" t="n">
-        <v>5</v>
-      </c>
-      <c r="B541" t="inlineStr">
+      <c r="A541" t="inlineStr">
         <is>
           <t>939953</t>
         </is>
       </c>
+      <c r="B541" t="n">
+        <v>5</v>
+      </c>
       <c r="C541" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="542">
-      <c r="A542" t="n">
-        <v>5</v>
-      </c>
-      <c r="B542" t="inlineStr">
+      <c r="A542" t="inlineStr">
         <is>
           <t>940150</t>
         </is>
       </c>
+      <c r="B542" t="n">
+        <v>5</v>
+      </c>
       <c r="C542" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="n">
-        <v>5</v>
-      </c>
-      <c r="B543" t="inlineStr">
+      <c r="A543" t="inlineStr">
         <is>
           <t>940836</t>
         </is>
       </c>
+      <c r="B543" t="n">
+        <v>5</v>
+      </c>
       <c r="C543" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="544">
-      <c r="A544" t="n">
-        <v>5</v>
-      </c>
-      <c r="B544" t="inlineStr">
+      <c r="A544" t="inlineStr">
         <is>
           <t>941261</t>
         </is>
       </c>
+      <c r="B544" t="n">
+        <v>5</v>
+      </c>
       <c r="C544" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="545">
-      <c r="A545" t="n">
-        <v>5</v>
-      </c>
-      <c r="B545" t="inlineStr">
+      <c r="A545" t="inlineStr">
         <is>
           <t>941296</t>
         </is>
       </c>
+      <c r="B545" t="n">
+        <v>5</v>
+      </c>
       <c r="C545" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="546">
-      <c r="A546" t="n">
-        <v>5</v>
-      </c>
-      <c r="B546" t="inlineStr">
+      <c r="A546" t="inlineStr">
         <is>
           <t>943950</t>
         </is>
       </c>
+      <c r="B546" t="n">
+        <v>5</v>
+      </c>
       <c r="C546" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="547">
-      <c r="A547" t="n">
-        <v>5</v>
-      </c>
-      <c r="B547" t="inlineStr">
+      <c r="A547" t="inlineStr">
         <is>
           <t>943958</t>
         </is>
       </c>
+      <c r="B547" t="n">
+        <v>5</v>
+      </c>
       <c r="C547" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="548">
-      <c r="A548" t="n">
-        <v>5</v>
-      </c>
-      <c r="B548" t="inlineStr">
+      <c r="A548" t="inlineStr">
         <is>
           <t>945324</t>
         </is>
       </c>
+      <c r="B548" t="n">
+        <v>5</v>
+      </c>
       <c r="C548" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="549">
-      <c r="A549" t="n">
-        <v>5</v>
-      </c>
-      <c r="B549" t="inlineStr">
+      <c r="A549" t="inlineStr">
         <is>
           <t>950182</t>
         </is>
       </c>
+      <c r="B549" t="n">
+        <v>5</v>
+      </c>
       <c r="C549" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="550">
-      <c r="A550" t="n">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>950557</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
         <v>4.5</v>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>950557</t>
-        </is>
       </c>
       <c r="C550" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="551">
-      <c r="A551" t="n">
-        <v>5</v>
-      </c>
-      <c r="B551" t="inlineStr">
+      <c r="A551" t="inlineStr">
         <is>
           <t>959772</t>
         </is>
       </c>
+      <c r="B551" t="n">
+        <v>5</v>
+      </c>
       <c r="C551" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="552">
-      <c r="A552" t="n">
-        <v>5</v>
-      </c>
-      <c r="B552" t="inlineStr">
+      <c r="A552" t="inlineStr">
         <is>
           <t>961737</t>
         </is>
       </c>
+      <c r="B552" t="n">
+        <v>5</v>
+      </c>
       <c r="C552" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="553">
-      <c r="A553" t="n">
-        <v>5</v>
-      </c>
-      <c r="B553" t="inlineStr">
+      <c r="A553" t="inlineStr">
         <is>
           <t>962556</t>
         </is>
       </c>
+      <c r="B553" t="n">
+        <v>5</v>
+      </c>
       <c r="C553" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="554">
-      <c r="A554" t="n">
-        <v>5</v>
-      </c>
-      <c r="B554" t="inlineStr">
+      <c r="A554" t="inlineStr">
         <is>
           <t>962767</t>
         </is>
       </c>
+      <c r="B554" t="n">
+        <v>5</v>
+      </c>
       <c r="C554" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="555">
-      <c r="A555" t="n">
-        <v>5</v>
-      </c>
-      <c r="B555" t="inlineStr">
+      <c r="A555" t="inlineStr">
         <is>
           <t>969300</t>
         </is>
       </c>
+      <c r="B555" t="n">
+        <v>5</v>
+      </c>
       <c r="C555" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="556">
-      <c r="A556" t="n">
-        <v>5</v>
-      </c>
-      <c r="B556" t="inlineStr">
+      <c r="A556" t="inlineStr">
         <is>
           <t>969928</t>
         </is>
       </c>
+      <c r="B556" t="n">
+        <v>5</v>
+      </c>
       <c r="C556" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="557">
-      <c r="A557" t="n">
-        <v>5</v>
-      </c>
-      <c r="B557" t="inlineStr">
+      <c r="A557" t="inlineStr">
         <is>
           <t>970470</t>
         </is>
       </c>
+      <c r="B557" t="n">
+        <v>5</v>
+      </c>
       <c r="C557" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="558">
-      <c r="A558" t="n">
-        <v>5</v>
-      </c>
-      <c r="B558" t="inlineStr">
+      <c r="A558" t="inlineStr">
         <is>
           <t>971143</t>
         </is>
       </c>
+      <c r="B558" t="n">
+        <v>5</v>
+      </c>
       <c r="C558" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="n">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>973131</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
         <v>4</v>
       </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>973131</t>
-        </is>
-      </c>
       <c r="C559" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="n">
-        <v>5</v>
-      </c>
-      <c r="B560" t="inlineStr">
+      <c r="A560" t="inlineStr">
         <is>
           <t>980169</t>
         </is>
+      </c>
+      <c r="B560" t="n">
+        <v>5</v>
       </c>
       <c r="C560" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="561">
-      <c r="A561" t="n">
-        <v>5</v>
-      </c>
-      <c r="B561" t="inlineStr">
+      <c r="A561" t="inlineStr">
         <is>
           <t>983780</t>
         </is>
       </c>
+      <c r="B561" t="n">
+        <v>5</v>
+      </c>
       <c r="C561" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="n">
-        <v>5</v>
-      </c>
-      <c r="B562" t="inlineStr">
+      <c r="A562" t="inlineStr">
         <is>
           <t>986639</t>
         </is>
       </c>
+      <c r="B562" t="n">
+        <v>5</v>
+      </c>
       <c r="C562" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="n">
-        <v>5</v>
-      </c>
-      <c r="B563" t="inlineStr">
+      <c r="A563" t="inlineStr">
         <is>
           <t>991741</t>
         </is>
       </c>
+      <c r="B563" t="n">
+        <v>5</v>
+      </c>
       <c r="C563" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="n">
-        <v>5</v>
-      </c>
-      <c r="B564" t="inlineStr">
+      <c r="A564" t="inlineStr">
         <is>
           <t>993209</t>
         </is>
+      </c>
+      <c r="B564" t="n">
+        <v>5</v>
       </c>
       <c r="C564" t="n">
         <v>1</v>
